--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J612"/>
+  <dimension ref="A1:J633"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="G588" sqref="G588"/>
@@ -19475,6 +19475,657 @@
         <v>177.4530590978789</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>661.9000244140625</v>
+      </c>
+      <c r="D613" t="n">
+        <v>1477.5</v>
+      </c>
+      <c r="E613" t="n">
+        <v>611.2000122070312</v>
+      </c>
+      <c r="F613" t="n">
+        <v>1308.050048828125</v>
+      </c>
+      <c r="G613" t="n">
+        <v>839.75</v>
+      </c>
+      <c r="H613" t="n">
+        <v>18182.55035400391</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0</v>
+      </c>
+      <c r="J613" t="n">
+        <v>177.4530590978789</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>660.75</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1476.699951171875</v>
+      </c>
+      <c r="E614" t="n">
+        <v>603.6199951171875</v>
+      </c>
+      <c r="F614" t="n">
+        <v>1309.849975585938</v>
+      </c>
+      <c r="G614" t="n">
+        <v>813</v>
+      </c>
+      <c r="H614" t="n">
+        <v>18047.759765625</v>
+      </c>
+      <c r="I614" t="n">
+        <v>-0.007413183835854168</v>
+      </c>
+      <c r="J614" t="n">
+        <v>176.1375669485516</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>647.1500244140625</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1481.199951171875</v>
+      </c>
+      <c r="E615" t="n">
+        <v>600.3599853515625</v>
+      </c>
+      <c r="F615" t="n">
+        <v>1311.599975585938</v>
+      </c>
+      <c r="G615" t="n">
+        <v>813.2000122070312</v>
+      </c>
+      <c r="H615" t="n">
+        <v>17962.32995605469</v>
+      </c>
+      <c r="I615" t="n">
+        <v>-0.004733540931380745</v>
+      </c>
+      <c r="J615" t="n">
+        <v>175.3038125658468</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>650.9500122070312</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1470.050048828125</v>
+      </c>
+      <c r="E616" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="F616" t="n">
+        <v>1316.800048828125</v>
+      </c>
+      <c r="G616" t="n">
+        <v>811.2000122070312</v>
+      </c>
+      <c r="H616" t="n">
+        <v>17987.74047851562</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.001414656256905703</v>
+      </c>
+      <c r="J616" t="n">
+        <v>175.5518072011525</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>640.0499877929688</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1460.75</v>
+      </c>
+      <c r="E617" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1341.949951171875</v>
+      </c>
+      <c r="G617" t="n">
+        <v>822.3499755859375</v>
+      </c>
+      <c r="H617" t="n">
+        <v>17977.66967773438</v>
+      </c>
+      <c r="I617" t="n">
+        <v>-0.0005598702512568748</v>
+      </c>
+      <c r="J617" t="n">
+        <v>175.4535209667462</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1475.300048828125</v>
+      </c>
+      <c r="E618" t="n">
+        <v>609</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1327.75</v>
+      </c>
+      <c r="G618" t="n">
+        <v>824.2999877929688</v>
+      </c>
+      <c r="H618" t="n">
+        <v>18052.54992675781</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.004165181047695957</v>
+      </c>
+      <c r="J618" t="n">
+        <v>176.1843166470284</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>643.9000244140625</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1457.699951171875</v>
+      </c>
+      <c r="E619" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1254.800048828125</v>
+      </c>
+      <c r="G619" t="n">
+        <v>835.4000244140625</v>
+      </c>
+      <c r="H619" t="n">
+        <v>17792.94024658203</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.01438077619112318</v>
+      </c>
+      <c r="J619" t="n">
+        <v>173.6506494209415</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1443.449951171875</v>
+      </c>
+      <c r="E620" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1256.849975585938</v>
+      </c>
+      <c r="G620" t="n">
+        <v>832.7000122070312</v>
+      </c>
+      <c r="H620" t="n">
+        <v>17880.34979248047</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.004912597057432855</v>
+      </c>
+      <c r="J620" t="n">
+        <v>174.5037250903082</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>676</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1492.050048828125</v>
+      </c>
+      <c r="E621" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1225.25</v>
+      </c>
+      <c r="G621" t="n">
+        <v>827.5999755859375</v>
+      </c>
+      <c r="H621" t="n">
+        <v>18025.32012939453</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.008107802061849448</v>
+      </c>
+      <c r="J621" t="n">
+        <v>175.9185667523958</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>680</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1503.050048828125</v>
+      </c>
+      <c r="E622" t="n">
+        <v>608</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G622" t="n">
+        <v>824.75</v>
+      </c>
+      <c r="H622" t="n">
+        <v>18130.15014648438</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.005815709032478913</v>
+      </c>
+      <c r="J622" t="n">
+        <v>176.9416579500384</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>680.4500122070312</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1499.949951171875</v>
+      </c>
+      <c r="E623" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1229</v>
+      </c>
+      <c r="G623" t="n">
+        <v>814</v>
+      </c>
+      <c r="H623" t="n">
+        <v>18088.97985839844</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.002270818926114677</v>
+      </c>
+      <c r="J623" t="n">
+        <v>176.5398554843474</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>686.0999755859375</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1513.449951171875</v>
+      </c>
+      <c r="E624" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1224.849975585938</v>
+      </c>
+      <c r="G624" t="n">
+        <v>809.7000122070312</v>
+      </c>
+      <c r="H624" t="n">
+        <v>18193.19958496094</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.00576150382046627</v>
+      </c>
+      <c r="J624" t="n">
+        <v>177.556990536185</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1491.300048828125</v>
+      </c>
+      <c r="E625" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1229.300048828125</v>
+      </c>
+      <c r="G625" t="n">
+        <v>788.0499877929688</v>
+      </c>
+      <c r="H625" t="n">
+        <v>18027.60040283203</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.009102257211853799</v>
+      </c>
+      <c r="J625" t="n">
+        <v>175.9408211385619</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>695.2000122070312</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1456.349975585938</v>
+      </c>
+      <c r="E626" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1219.699951171875</v>
+      </c>
+      <c r="G626" t="n">
+        <v>751.9500122070312</v>
+      </c>
+      <c r="H626" t="n">
+        <v>17765.49987792969</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.01453884704817227</v>
+      </c>
+      <c r="J626" t="n">
+        <v>173.3828444504985</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>692</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1459.400024414062</v>
+      </c>
+      <c r="E627" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1222.949951171875</v>
+      </c>
+      <c r="G627" t="n">
+        <v>746.75</v>
+      </c>
+      <c r="H627" t="n">
+        <v>17827</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.003461772676980224</v>
+      </c>
+      <c r="J627" t="n">
+        <v>173.9830564440744</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>695.2999877929688</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1432.150024414062</v>
+      </c>
+      <c r="E628" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1224.550048828125</v>
+      </c>
+      <c r="G628" t="n">
+        <v>744.5999755859375</v>
+      </c>
+      <c r="H628" t="n">
+        <v>17755.70007324219</v>
+      </c>
+      <c r="I628" t="n">
+        <v>-0.003999547133999692</v>
+      </c>
+      <c r="J628" t="n">
+        <v>173.287203009309</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>697</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1444.849975585938</v>
+      </c>
+      <c r="E629" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1197.849975585938</v>
+      </c>
+      <c r="G629" t="n">
+        <v>747.2000122070312</v>
+      </c>
+      <c r="H629" t="n">
+        <v>17752.34997558594</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.0001886773060161447</v>
+      </c>
+      <c r="J629" t="n">
+        <v>173.2545076466781</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>709</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1456.599975585938</v>
+      </c>
+      <c r="E630" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1206.300048828125</v>
+      </c>
+      <c r="G630" t="n">
+        <v>747.5499877929688</v>
+      </c>
+      <c r="H630" t="n">
+        <v>17905.25006103516</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.008612949027001824</v>
+      </c>
+      <c r="J630" t="n">
+        <v>174.7467398897373</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>702.5</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1449.300048828125</v>
+      </c>
+      <c r="E631" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G631" t="n">
+        <v>763.75</v>
+      </c>
+      <c r="H631" t="n">
+        <v>17852.70007324219</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.00293489270542646</v>
+      </c>
+      <c r="J631" t="n">
+        <v>174.2338769575378</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>705.0999755859375</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1446.349975585938</v>
+      </c>
+      <c r="E632" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1194.699951171875</v>
+      </c>
+      <c r="G632" t="n">
+        <v>760.9500122070312</v>
+      </c>
+      <c r="H632" t="n">
+        <v>17843.19958496094</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.0005321597429113499</v>
+      </c>
+      <c r="J632" t="n">
+        <v>174.1411567023696</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>689.2000122070312</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1429.550048828125</v>
+      </c>
+      <c r="E633" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1175.349975585938</v>
+      </c>
+      <c r="G633" t="n">
+        <v>742.5499877929688</v>
+      </c>
+      <c r="H633" t="n">
+        <v>17509.20007324219</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.0187185885652627</v>
+      </c>
+      <c r="J633" t="n">
+        <v>170.8814800377791</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J633"/>
+  <dimension ref="A1:J654"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="G588" sqref="G588"/>
@@ -20126,6 +20126,657 @@
         <v>170.8814800377791</v>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>661.9000244140625</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1477.5</v>
+      </c>
+      <c r="E634" t="n">
+        <v>611.2000122070312</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1308.050048828125</v>
+      </c>
+      <c r="G634" t="n">
+        <v>839.75</v>
+      </c>
+      <c r="H634" t="n">
+        <v>18182.55035400391</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0</v>
+      </c>
+      <c r="J634" t="n">
+        <v>170.8814800377791</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>660.75</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1476.699951171875</v>
+      </c>
+      <c r="E635" t="n">
+        <v>603.6199951171875</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1309.849975585938</v>
+      </c>
+      <c r="G635" t="n">
+        <v>813</v>
+      </c>
+      <c r="H635" t="n">
+        <v>18047.759765625</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.007413183835854168</v>
+      </c>
+      <c r="J635" t="n">
+        <v>169.6147042121162</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>647.1500244140625</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1481.199951171875</v>
+      </c>
+      <c r="E636" t="n">
+        <v>600.3599853515625</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1311.599975585938</v>
+      </c>
+      <c r="G636" t="n">
+        <v>813.2000122070312</v>
+      </c>
+      <c r="H636" t="n">
+        <v>17962.32995605469</v>
+      </c>
+      <c r="I636" t="n">
+        <v>-0.004733540931380745</v>
+      </c>
+      <c r="J636" t="n">
+        <v>168.8118260671641</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>650.9500122070312</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1470.050048828125</v>
+      </c>
+      <c r="E637" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1316.800048828125</v>
+      </c>
+      <c r="G637" t="n">
+        <v>811.2000122070312</v>
+      </c>
+      <c r="H637" t="n">
+        <v>17987.74047851562</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0.001414656256905703</v>
+      </c>
+      <c r="J637" t="n">
+        <v>169.0506367731497</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>640.0499877929688</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1460.75</v>
+      </c>
+      <c r="E638" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1341.949951171875</v>
+      </c>
+      <c r="G638" t="n">
+        <v>822.3499755859375</v>
+      </c>
+      <c r="H638" t="n">
+        <v>17977.66967773438</v>
+      </c>
+      <c r="I638" t="n">
+        <v>-0.0005598702512568748</v>
+      </c>
+      <c r="J638" t="n">
+        <v>168.9559903506644</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1475.300048828125</v>
+      </c>
+      <c r="E639" t="n">
+        <v>609</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1327.75</v>
+      </c>
+      <c r="G639" t="n">
+        <v>824.2999877929688</v>
+      </c>
+      <c r="H639" t="n">
+        <v>18052.54992675781</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0.004165181047695957</v>
+      </c>
+      <c r="J639" t="n">
+        <v>169.6597226395676</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>643.9000244140625</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1457.699951171875</v>
+      </c>
+      <c r="E640" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1254.800048828125</v>
+      </c>
+      <c r="G640" t="n">
+        <v>835.4000244140625</v>
+      </c>
+      <c r="H640" t="n">
+        <v>17792.94024658203</v>
+      </c>
+      <c r="I640" t="n">
+        <v>-0.01438077619112318</v>
+      </c>
+      <c r="J640" t="n">
+        <v>167.21988413964</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1443.449951171875</v>
+      </c>
+      <c r="E641" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1256.849975585938</v>
+      </c>
+      <c r="G641" t="n">
+        <v>832.7000122070312</v>
+      </c>
+      <c r="H641" t="n">
+        <v>17880.34979248047</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0.004912597057432855</v>
+      </c>
+      <c r="J641" t="n">
+        <v>168.0413680504086</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>676</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1492.050048828125</v>
+      </c>
+      <c r="E642" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1225.25</v>
+      </c>
+      <c r="G642" t="n">
+        <v>827.5999755859375</v>
+      </c>
+      <c r="H642" t="n">
+        <v>18025.32012939453</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0.008107802061849448</v>
+      </c>
+      <c r="J642" t="n">
+        <v>169.4038142007637</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>680</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1503.050048828125</v>
+      </c>
+      <c r="E643" t="n">
+        <v>608</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G643" t="n">
+        <v>824.75</v>
+      </c>
+      <c r="H643" t="n">
+        <v>18130.15014648438</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0.005815709032478913</v>
+      </c>
+      <c r="J643" t="n">
+        <v>170.3890174931475</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>680.4500122070312</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1499.949951171875</v>
+      </c>
+      <c r="E644" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1229</v>
+      </c>
+      <c r="G644" t="n">
+        <v>814</v>
+      </c>
+      <c r="H644" t="n">
+        <v>18088.97985839844</v>
+      </c>
+      <c r="I644" t="n">
+        <v>-0.002270818926114677</v>
+      </c>
+      <c r="J644" t="n">
+        <v>170.0020948874219</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>686.0999755859375</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1513.449951171875</v>
+      </c>
+      <c r="E645" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1224.849975585938</v>
+      </c>
+      <c r="G645" t="n">
+        <v>809.7000122070312</v>
+      </c>
+      <c r="H645" t="n">
+        <v>18193.19958496094</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.00576150382046627</v>
+      </c>
+      <c r="J645" t="n">
+        <v>170.9815626066031</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1491.300048828125</v>
+      </c>
+      <c r="E646" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1229.300048828125</v>
+      </c>
+      <c r="G646" t="n">
+        <v>788.0499877929688</v>
+      </c>
+      <c r="H646" t="n">
+        <v>18027.60040283203</v>
+      </c>
+      <c r="I646" t="n">
+        <v>-0.009102257211853799</v>
+      </c>
+      <c r="J646" t="n">
+        <v>169.4252444452731</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>695.2000122070312</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1456.349975585938</v>
+      </c>
+      <c r="E647" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1219.699951171875</v>
+      </c>
+      <c r="G647" t="n">
+        <v>751.9500122070312</v>
+      </c>
+      <c r="H647" t="n">
+        <v>17765.49987792969</v>
+      </c>
+      <c r="I647" t="n">
+        <v>-0.01453884704817227</v>
+      </c>
+      <c r="J647" t="n">
+        <v>166.9619967301841</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>692</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1459.400024414062</v>
+      </c>
+      <c r="E648" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1222.949951171875</v>
+      </c>
+      <c r="G648" t="n">
+        <v>746.75</v>
+      </c>
+      <c r="H648" t="n">
+        <v>17827</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0.003461772676980224</v>
+      </c>
+      <c r="J648" t="n">
+        <v>167.5399812085587</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>695.2999877929688</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1432.150024414062</v>
+      </c>
+      <c r="E649" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1224.550048828125</v>
+      </c>
+      <c r="G649" t="n">
+        <v>744.5999755859375</v>
+      </c>
+      <c r="H649" t="n">
+        <v>17755.70007324219</v>
+      </c>
+      <c r="I649" t="n">
+        <v>-0.003999547133999692</v>
+      </c>
+      <c r="J649" t="n">
+        <v>166.8698971568857</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>697</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1444.849975585938</v>
+      </c>
+      <c r="E650" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1197.849975585938</v>
+      </c>
+      <c r="G650" t="n">
+        <v>747.2000122070312</v>
+      </c>
+      <c r="H650" t="n">
+        <v>17752.34997558594</v>
+      </c>
+      <c r="I650" t="n">
+        <v>-0.0001886773060161447</v>
+      </c>
+      <c r="J650" t="n">
+        <v>166.8384125942349</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>709</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1456.599975585938</v>
+      </c>
+      <c r="E651" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1206.300048828125</v>
+      </c>
+      <c r="G651" t="n">
+        <v>747.5499877929688</v>
+      </c>
+      <c r="H651" t="n">
+        <v>17905.25006103516</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0.008612949027001824</v>
+      </c>
+      <c r="J651" t="n">
+        <v>168.275383337655</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>702.5</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1449.300048828125</v>
+      </c>
+      <c r="E652" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G652" t="n">
+        <v>763.75</v>
+      </c>
+      <c r="H652" t="n">
+        <v>17852.70007324219</v>
+      </c>
+      <c r="I652" t="n">
+        <v>-0.00293489270542646</v>
+      </c>
+      <c r="J652" t="n">
+        <v>167.7815131425944</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>705.0999755859375</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1446.349975585938</v>
+      </c>
+      <c r="E653" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1194.699951171875</v>
+      </c>
+      <c r="G653" t="n">
+        <v>760.9500122070312</v>
+      </c>
+      <c r="H653" t="n">
+        <v>17843.19958496094</v>
+      </c>
+      <c r="I653" t="n">
+        <v>-0.0005321597429113499</v>
+      </c>
+      <c r="J653" t="n">
+        <v>167.6922265756952</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>689.2000122070312</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1429.550048828125</v>
+      </c>
+      <c r="E654" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1175.349975585938</v>
+      </c>
+      <c r="G654" t="n">
+        <v>742.5499877929688</v>
+      </c>
+      <c r="H654" t="n">
+        <v>17509.20007324219</v>
+      </c>
+      <c r="I654" t="n">
+        <v>-0.0187185885652627</v>
+      </c>
+      <c r="J654" t="n">
+        <v>164.553264780832</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J654"/>
+  <dimension ref="A1:J675"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="G588" sqref="G588"/>
@@ -20777,6 +20777,657 @@
         <v>164.553264780832</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>661.9000244140625</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1477.5</v>
+      </c>
+      <c r="E655" t="n">
+        <v>611.2000122070312</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1308.050048828125</v>
+      </c>
+      <c r="G655" t="n">
+        <v>839.75</v>
+      </c>
+      <c r="H655" t="n">
+        <v>18182.55035400391</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" t="n">
+        <v>164.553264780832</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>660.75</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1476.699951171875</v>
+      </c>
+      <c r="E656" t="n">
+        <v>603.6199951171875</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1309.849975585938</v>
+      </c>
+      <c r="G656" t="n">
+        <v>813</v>
+      </c>
+      <c r="H656" t="n">
+        <v>18047.759765625</v>
+      </c>
+      <c r="I656" t="n">
+        <v>-0.007413183835854168</v>
+      </c>
+      <c r="J656" t="n">
+        <v>163.3334011782217</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>647.1500244140625</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1481.199951171875</v>
+      </c>
+      <c r="E657" t="n">
+        <v>600.3599853515625</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1311.599975585938</v>
+      </c>
+      <c r="G657" t="n">
+        <v>813.2000122070312</v>
+      </c>
+      <c r="H657" t="n">
+        <v>17962.32995605469</v>
+      </c>
+      <c r="I657" t="n">
+        <v>-0.004733540931380745</v>
+      </c>
+      <c r="J657" t="n">
+        <v>162.5602558382829</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>650.9500122070312</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1470.050048828125</v>
+      </c>
+      <c r="E658" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1316.800048828125</v>
+      </c>
+      <c r="G658" t="n">
+        <v>811.2000122070312</v>
+      </c>
+      <c r="H658" t="n">
+        <v>17987.74047851562</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0.001414656256905703</v>
+      </c>
+      <c r="J658" t="n">
+        <v>162.7902227213287</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>640.0499877929688</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1460.75</v>
+      </c>
+      <c r="E659" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1341.949951171875</v>
+      </c>
+      <c r="G659" t="n">
+        <v>822.3499755859375</v>
+      </c>
+      <c r="H659" t="n">
+        <v>17977.66967773438</v>
+      </c>
+      <c r="I659" t="n">
+        <v>-0.0005598702512568748</v>
+      </c>
+      <c r="J659" t="n">
+        <v>162.6990813184316</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1475.300048828125</v>
+      </c>
+      <c r="E660" t="n">
+        <v>609</v>
+      </c>
+      <c r="F660" t="n">
+        <v>1327.75</v>
+      </c>
+      <c r="G660" t="n">
+        <v>824.2999877929688</v>
+      </c>
+      <c r="H660" t="n">
+        <v>18052.54992675781</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.004165181047695957</v>
+      </c>
+      <c r="J660" t="n">
+        <v>163.3767524484167</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>643.9000244140625</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1457.699951171875</v>
+      </c>
+      <c r="E661" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1254.800048828125</v>
+      </c>
+      <c r="G661" t="n">
+        <v>835.4000244140625</v>
+      </c>
+      <c r="H661" t="n">
+        <v>17792.94024658203</v>
+      </c>
+      <c r="I661" t="n">
+        <v>-0.01438077619112318</v>
+      </c>
+      <c r="J661" t="n">
+        <v>161.0272679366234</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1443.449951171875</v>
+      </c>
+      <c r="E662" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="F662" t="n">
+        <v>1256.849975585938</v>
+      </c>
+      <c r="G662" t="n">
+        <v>832.7000122070312</v>
+      </c>
+      <c r="H662" t="n">
+        <v>17880.34979248047</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0.004912597057432855</v>
+      </c>
+      <c r="J662" t="n">
+        <v>161.8183300192553</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>676</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1492.050048828125</v>
+      </c>
+      <c r="E663" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1225.25</v>
+      </c>
+      <c r="G663" t="n">
+        <v>827.5999755859375</v>
+      </c>
+      <c r="H663" t="n">
+        <v>18025.32012939453</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0.008107802061849448</v>
+      </c>
+      <c r="J663" t="n">
+        <v>163.1303210090305</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>680</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1503.050048828125</v>
+      </c>
+      <c r="E664" t="n">
+        <v>608</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G664" t="n">
+        <v>824.75</v>
+      </c>
+      <c r="H664" t="n">
+        <v>18130.15014648438</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0.005815709032478913</v>
+      </c>
+      <c r="J664" t="n">
+        <v>164.0790394903939</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>680.4500122070312</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1499.949951171875</v>
+      </c>
+      <c r="E665" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1229</v>
+      </c>
+      <c r="G665" t="n">
+        <v>814</v>
+      </c>
+      <c r="H665" t="n">
+        <v>18088.97985839844</v>
+      </c>
+      <c r="I665" t="n">
+        <v>-0.002270818926114677</v>
+      </c>
+      <c r="J665" t="n">
+        <v>163.7064457021404</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>686.0999755859375</v>
+      </c>
+      <c r="D666" t="n">
+        <v>1513.449951171875</v>
+      </c>
+      <c r="E666" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="F666" t="n">
+        <v>1224.849975585938</v>
+      </c>
+      <c r="G666" t="n">
+        <v>809.7000122070312</v>
+      </c>
+      <c r="H666" t="n">
+        <v>18193.19958496094</v>
+      </c>
+      <c r="I666" t="n">
+        <v>0.00576150382046627</v>
+      </c>
+      <c r="J666" t="n">
+        <v>164.6496410144882</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="D667" t="n">
+        <v>1491.300048828125</v>
+      </c>
+      <c r="E667" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1229.300048828125</v>
+      </c>
+      <c r="G667" t="n">
+        <v>788.0499877929688</v>
+      </c>
+      <c r="H667" t="n">
+        <v>18027.60040283203</v>
+      </c>
+      <c r="I667" t="n">
+        <v>-0.009102257211853799</v>
+      </c>
+      <c r="J667" t="n">
+        <v>163.150957632135</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>695.2000122070312</v>
+      </c>
+      <c r="D668" t="n">
+        <v>1456.349975585938</v>
+      </c>
+      <c r="E668" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="F668" t="n">
+        <v>1219.699951171875</v>
+      </c>
+      <c r="G668" t="n">
+        <v>751.9500122070312</v>
+      </c>
+      <c r="H668" t="n">
+        <v>17765.49987792969</v>
+      </c>
+      <c r="I668" t="n">
+        <v>-0.01453884704817227</v>
+      </c>
+      <c r="J668" t="n">
+        <v>160.7789308133585</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>692</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1459.400024414062</v>
+      </c>
+      <c r="E669" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="F669" t="n">
+        <v>1222.949951171875</v>
+      </c>
+      <c r="G669" t="n">
+        <v>746.75</v>
+      </c>
+      <c r="H669" t="n">
+        <v>17827</v>
+      </c>
+      <c r="I669" t="n">
+        <v>0.003461772676980224</v>
+      </c>
+      <c r="J669" t="n">
+        <v>161.3355109230823</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>695.2999877929688</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1432.150024414062</v>
+      </c>
+      <c r="E670" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="F670" t="n">
+        <v>1224.550048828125</v>
+      </c>
+      <c r="G670" t="n">
+        <v>744.5999755859375</v>
+      </c>
+      <c r="H670" t="n">
+        <v>17755.70007324219</v>
+      </c>
+      <c r="I670" t="n">
+        <v>-0.003999547133999692</v>
+      </c>
+      <c r="J670" t="n">
+        <v>160.6902419427576</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>697</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1444.849975585938</v>
+      </c>
+      <c r="E671" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1197.849975585938</v>
+      </c>
+      <c r="G671" t="n">
+        <v>747.2000122070312</v>
+      </c>
+      <c r="H671" t="n">
+        <v>17752.34997558594</v>
+      </c>
+      <c r="I671" t="n">
+        <v>-0.0001886773060161447</v>
+      </c>
+      <c r="J671" t="n">
+        <v>160.6599233408047</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>709</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1456.599975585938</v>
+      </c>
+      <c r="E672" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="F672" t="n">
+        <v>1206.300048828125</v>
+      </c>
+      <c r="G672" t="n">
+        <v>747.5499877929688</v>
+      </c>
+      <c r="H672" t="n">
+        <v>17905.25006103516</v>
+      </c>
+      <c r="I672" t="n">
+        <v>0.008612949027001824</v>
+      </c>
+      <c r="J672" t="n">
+        <v>162.0436790712211</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>702.5</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1449.300048828125</v>
+      </c>
+      <c r="E673" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G673" t="n">
+        <v>763.75</v>
+      </c>
+      <c r="H673" t="n">
+        <v>17852.70007324219</v>
+      </c>
+      <c r="I673" t="n">
+        <v>-0.00293489270542646</v>
+      </c>
+      <c r="J673" t="n">
+        <v>161.5680982595545</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>705.0999755859375</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1446.349975585938</v>
+      </c>
+      <c r="E674" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="F674" t="n">
+        <v>1194.699951171875</v>
+      </c>
+      <c r="G674" t="n">
+        <v>760.9500122070312</v>
+      </c>
+      <c r="H674" t="n">
+        <v>17843.19958496094</v>
+      </c>
+      <c r="I674" t="n">
+        <v>-0.0005321597429113499</v>
+      </c>
+      <c r="J674" t="n">
+        <v>161.482118221922</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>689.2000122070312</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1429.550048828125</v>
+      </c>
+      <c r="E675" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1175.349975585938</v>
+      </c>
+      <c r="G675" t="n">
+        <v>742.5499877929688</v>
+      </c>
+      <c r="H675" t="n">
+        <v>17509.20007324219</v>
+      </c>
+      <c r="I675" t="n">
+        <v>-0.0187185885652627</v>
+      </c>
+      <c r="J675" t="n">
+        <v>158.4594008902787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J613"/>
+  <dimension ref="A1:J633"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="G588" sqref="G588"/>
@@ -19506,6 +19506,626 @@
         <v>200.7075815441321</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>650.9500122070312</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1470.050048828125</v>
+      </c>
+      <c r="E614" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="F614" t="n">
+        <v>1316.800048828125</v>
+      </c>
+      <c r="G614" t="n">
+        <v>811.2000122070312</v>
+      </c>
+      <c r="H614" t="n">
+        <v>17987.74047851562</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0</v>
+      </c>
+      <c r="J614" t="n">
+        <v>200.7075815441321</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>640.0499877929688</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1460.75</v>
+      </c>
+      <c r="E615" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="F615" t="n">
+        <v>1341.949951171875</v>
+      </c>
+      <c r="G615" t="n">
+        <v>822.3499755859375</v>
+      </c>
+      <c r="H615" t="n">
+        <v>17977.66967773438</v>
+      </c>
+      <c r="I615" t="n">
+        <v>-0.0005598702512568748</v>
+      </c>
+      <c r="J615" t="n">
+        <v>200.5952113400238</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1475.300048828125</v>
+      </c>
+      <c r="E616" t="n">
+        <v>609</v>
+      </c>
+      <c r="F616" t="n">
+        <v>1327.75</v>
+      </c>
+      <c r="G616" t="n">
+        <v>824.2999877929688</v>
+      </c>
+      <c r="H616" t="n">
+        <v>18052.54992675781</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.004165181047695957</v>
+      </c>
+      <c r="J616" t="n">
+        <v>201.4307267125558</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>643.9000244140625</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1457.699951171875</v>
+      </c>
+      <c r="E617" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1254.800048828125</v>
+      </c>
+      <c r="G617" t="n">
+        <v>835.4000244140625</v>
+      </c>
+      <c r="H617" t="n">
+        <v>17792.94024658203</v>
+      </c>
+      <c r="I617" t="n">
+        <v>-0.01438077619112318</v>
+      </c>
+      <c r="J617" t="n">
+        <v>198.5339965136873</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1443.449951171875</v>
+      </c>
+      <c r="E618" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1256.849975585938</v>
+      </c>
+      <c r="G618" t="n">
+        <v>832.7000122070312</v>
+      </c>
+      <c r="H618" t="n">
+        <v>17880.34979248047</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.004912597057432855</v>
+      </c>
+      <c r="J618" t="n">
+        <v>199.5093140407608</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>676</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1492.050048828125</v>
+      </c>
+      <c r="E619" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1225.25</v>
+      </c>
+      <c r="G619" t="n">
+        <v>827.5999755859375</v>
+      </c>
+      <c r="H619" t="n">
+        <v>18025.32012939453</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.008107802061849448</v>
+      </c>
+      <c r="J619" t="n">
+        <v>201.1268960684986</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>680</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1503.050048828125</v>
+      </c>
+      <c r="E620" t="n">
+        <v>608</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G620" t="n">
+        <v>824.75</v>
+      </c>
+      <c r="H620" t="n">
+        <v>18130.15014648438</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.005815709032478913</v>
+      </c>
+      <c r="J620" t="n">
+        <v>202.2965915746387</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>680.4500122070312</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1499.949951171875</v>
+      </c>
+      <c r="E621" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1229</v>
+      </c>
+      <c r="G621" t="n">
+        <v>814</v>
+      </c>
+      <c r="H621" t="n">
+        <v>18088.97985839844</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.002270818926114677</v>
+      </c>
+      <c r="J621" t="n">
+        <v>201.8372126458025</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>686.0999755859375</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1513.449951171875</v>
+      </c>
+      <c r="E622" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1224.849975585938</v>
+      </c>
+      <c r="G622" t="n">
+        <v>809.7000122070312</v>
+      </c>
+      <c r="H622" t="n">
+        <v>18193.19958496094</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.00576150382046627</v>
+      </c>
+      <c r="J622" t="n">
+        <v>203.0000985175735</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1491.300048828125</v>
+      </c>
+      <c r="E623" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1229.300048828125</v>
+      </c>
+      <c r="G623" t="n">
+        <v>788.0499877929688</v>
+      </c>
+      <c r="H623" t="n">
+        <v>18027.60040283203</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.009102257211853799</v>
+      </c>
+      <c r="J623" t="n">
+        <v>201.152339406835</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>695.2000122070312</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1456.349975585938</v>
+      </c>
+      <c r="E624" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1219.699951171875</v>
+      </c>
+      <c r="G624" t="n">
+        <v>751.9500122070312</v>
+      </c>
+      <c r="H624" t="n">
+        <v>17765.49987792969</v>
+      </c>
+      <c r="I624" t="n">
+        <v>-0.01453884704817227</v>
+      </c>
+      <c r="J624" t="n">
+        <v>198.2278163108169</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>692</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1459.400024414062</v>
+      </c>
+      <c r="E625" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1222.949951171875</v>
+      </c>
+      <c r="G625" t="n">
+        <v>746.75</v>
+      </c>
+      <c r="H625" t="n">
+        <v>17827</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.003461772676980224</v>
+      </c>
+      <c r="J625" t="n">
+        <v>198.9140359491392</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>695.2999877929688</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1432.150024414062</v>
+      </c>
+      <c r="E626" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1224.550048828125</v>
+      </c>
+      <c r="G626" t="n">
+        <v>744.5999755859375</v>
+      </c>
+      <c r="H626" t="n">
+        <v>17755.70007324219</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.003999547133999692</v>
+      </c>
+      <c r="J626" t="n">
+        <v>198.1184698867465</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>697</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1444.849975585938</v>
+      </c>
+      <c r="E627" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1197.849975585938</v>
+      </c>
+      <c r="G627" t="n">
+        <v>747.2000122070312</v>
+      </c>
+      <c r="H627" t="n">
+        <v>17752.34997558594</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.0001886773060161447</v>
+      </c>
+      <c r="J627" t="n">
+        <v>198.0810894275762</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>709</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1456.599975585938</v>
+      </c>
+      <c r="E628" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1206.300048828125</v>
+      </c>
+      <c r="G628" t="n">
+        <v>747.5499877929688</v>
+      </c>
+      <c r="H628" t="n">
+        <v>17905.25006103516</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.008612949027001824</v>
+      </c>
+      <c r="J628" t="n">
+        <v>199.7871517540289</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>702.5</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1449.300048828125</v>
+      </c>
+      <c r="E629" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G629" t="n">
+        <v>763.75</v>
+      </c>
+      <c r="H629" t="n">
+        <v>17852.70007324219</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.00293489270542646</v>
+      </c>
+      <c r="J629" t="n">
+        <v>199.2007978997081</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>705.0999755859375</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1446.349975585938</v>
+      </c>
+      <c r="E630" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1194.699951171875</v>
+      </c>
+      <c r="G630" t="n">
+        <v>760.9500122070312</v>
+      </c>
+      <c r="H630" t="n">
+        <v>17843.19958496094</v>
+      </c>
+      <c r="I630" t="n">
+        <v>-0.0005321597429113499</v>
+      </c>
+      <c r="J630" t="n">
+        <v>199.0947912543101</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>689.2000122070312</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1429.550048828125</v>
+      </c>
+      <c r="E631" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1175.349975585938</v>
+      </c>
+      <c r="G631" t="n">
+        <v>742.5499877929688</v>
+      </c>
+      <c r="H631" t="n">
+        <v>17509.20007324219</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.0187185885652627</v>
+      </c>
+      <c r="J631" t="n">
+        <v>195.3680177713338</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>693.5999755859375</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1422.300048828125</v>
+      </c>
+      <c r="E632" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G632" t="n">
+        <v>742.25</v>
+      </c>
+      <c r="H632" t="n">
+        <v>17466.64990234375</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.002430160756656341</v>
+      </c>
+      <c r="J632" t="n">
+        <v>194.8932420814401</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>692.4500122070312</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1388.650024414062</v>
+      </c>
+      <c r="E633" t="n">
+        <v>608.5499877929688</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1165.550048828125</v>
+      </c>
+      <c r="G633" t="n">
+        <v>751.6500244140625</v>
+      </c>
+      <c r="H633" t="n">
+        <v>17342.00036621094</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.007136430673868747</v>
+      </c>
+      <c r="J633" t="n">
+        <v>193.5023999705204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J633"/>
+  <dimension ref="A1:J653"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="G588" sqref="G588"/>
@@ -20126,6 +20126,626 @@
         <v>193.5023999705204</v>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>650.9500122070312</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1470.050048828125</v>
+      </c>
+      <c r="E634" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1316.800048828125</v>
+      </c>
+      <c r="G634" t="n">
+        <v>811.2000122070312</v>
+      </c>
+      <c r="H634" t="n">
+        <v>17987.74047851562</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0</v>
+      </c>
+      <c r="J634" t="n">
+        <v>193.5023999705204</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>640.0499877929688</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1460.75</v>
+      </c>
+      <c r="E635" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1341.949951171875</v>
+      </c>
+      <c r="G635" t="n">
+        <v>822.3499755859375</v>
+      </c>
+      <c r="H635" t="n">
+        <v>17977.66967773438</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.0005598702512568748</v>
+      </c>
+      <c r="J635" t="n">
+        <v>193.3940637332301</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1475.300048828125</v>
+      </c>
+      <c r="E636" t="n">
+        <v>609</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1327.75</v>
+      </c>
+      <c r="G636" t="n">
+        <v>824.2999877929688</v>
+      </c>
+      <c r="H636" t="n">
+        <v>18052.54992675781</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.004165181047695957</v>
+      </c>
+      <c r="J636" t="n">
+        <v>194.1995850222286</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>643.9000244140625</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1457.699951171875</v>
+      </c>
+      <c r="E637" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1254.800048828125</v>
+      </c>
+      <c r="G637" t="n">
+        <v>835.4000244140625</v>
+      </c>
+      <c r="H637" t="n">
+        <v>17792.94024658203</v>
+      </c>
+      <c r="I637" t="n">
+        <v>-0.01438077619112318</v>
+      </c>
+      <c r="J637" t="n">
+        <v>191.406844253615</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1443.449951171875</v>
+      </c>
+      <c r="E638" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1256.849975585938</v>
+      </c>
+      <c r="G638" t="n">
+        <v>832.7000122070312</v>
+      </c>
+      <c r="H638" t="n">
+        <v>17880.34979248047</v>
+      </c>
+      <c r="I638" t="n">
+        <v>0.004912597057432855</v>
+      </c>
+      <c r="J638" t="n">
+        <v>192.3471489534678</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>676</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1492.050048828125</v>
+      </c>
+      <c r="E639" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1225.25</v>
+      </c>
+      <c r="G639" t="n">
+        <v>827.5999755859375</v>
+      </c>
+      <c r="H639" t="n">
+        <v>18025.32012939453</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0.008107802061849448</v>
+      </c>
+      <c r="J639" t="n">
+        <v>193.9066615643436</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>680</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1503.050048828125</v>
+      </c>
+      <c r="E640" t="n">
+        <v>608</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G640" t="n">
+        <v>824.75</v>
+      </c>
+      <c r="H640" t="n">
+        <v>18130.15014648438</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.005815709032478913</v>
+      </c>
+      <c r="J640" t="n">
+        <v>195.0343662874612</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>680.4500122070312</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1499.949951171875</v>
+      </c>
+      <c r="E641" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1229</v>
+      </c>
+      <c r="G641" t="n">
+        <v>814</v>
+      </c>
+      <c r="H641" t="n">
+        <v>18088.97985839844</v>
+      </c>
+      <c r="I641" t="n">
+        <v>-0.002270818926114677</v>
+      </c>
+      <c r="J641" t="n">
+        <v>194.5914785572528</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>686.0999755859375</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1513.449951171875</v>
+      </c>
+      <c r="E642" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1224.849975585938</v>
+      </c>
+      <c r="G642" t="n">
+        <v>809.7000122070312</v>
+      </c>
+      <c r="H642" t="n">
+        <v>18193.19958496094</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0.00576150382046627</v>
+      </c>
+      <c r="J642" t="n">
+        <v>195.7126181043906</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1491.300048828125</v>
+      </c>
+      <c r="E643" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1229.300048828125</v>
+      </c>
+      <c r="G643" t="n">
+        <v>788.0499877929688</v>
+      </c>
+      <c r="H643" t="n">
+        <v>18027.60040283203</v>
+      </c>
+      <c r="I643" t="n">
+        <v>-0.009102257211853799</v>
+      </c>
+      <c r="J643" t="n">
+        <v>193.9311915147991</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>695.2000122070312</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1456.349975585938</v>
+      </c>
+      <c r="E644" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1219.699951171875</v>
+      </c>
+      <c r="G644" t="n">
+        <v>751.9500122070312</v>
+      </c>
+      <c r="H644" t="n">
+        <v>17765.49987792969</v>
+      </c>
+      <c r="I644" t="n">
+        <v>-0.01453884704817227</v>
+      </c>
+      <c r="J644" t="n">
+        <v>191.1116555834957</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>692</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1459.400024414062</v>
+      </c>
+      <c r="E645" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1222.949951171875</v>
+      </c>
+      <c r="G645" t="n">
+        <v>746.75</v>
+      </c>
+      <c r="H645" t="n">
+        <v>17827</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.003461772676980224</v>
+      </c>
+      <c r="J645" t="n">
+        <v>191.7732406910471</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>695.2999877929688</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1432.150024414062</v>
+      </c>
+      <c r="E646" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1224.550048828125</v>
+      </c>
+      <c r="G646" t="n">
+        <v>744.5999755859375</v>
+      </c>
+      <c r="H646" t="n">
+        <v>17755.70007324219</v>
+      </c>
+      <c r="I646" t="n">
+        <v>-0.003999547133999692</v>
+      </c>
+      <c r="J646" t="n">
+        <v>191.0062345758634</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>697</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1444.849975585938</v>
+      </c>
+      <c r="E647" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1197.849975585938</v>
+      </c>
+      <c r="G647" t="n">
+        <v>747.2000122070312</v>
+      </c>
+      <c r="H647" t="n">
+        <v>17752.34997558594</v>
+      </c>
+      <c r="I647" t="n">
+        <v>-0.0001886773060161447</v>
+      </c>
+      <c r="J647" t="n">
+        <v>190.9701960340913</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>709</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1456.599975585938</v>
+      </c>
+      <c r="E648" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1206.300048828125</v>
+      </c>
+      <c r="G648" t="n">
+        <v>747.5499877929688</v>
+      </c>
+      <c r="H648" t="n">
+        <v>17905.25006103516</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0.008612949027001824</v>
+      </c>
+      <c r="J648" t="n">
+        <v>192.6150125982095</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>702.5</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1449.300048828125</v>
+      </c>
+      <c r="E649" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G649" t="n">
+        <v>763.75</v>
+      </c>
+      <c r="H649" t="n">
+        <v>17852.70007324219</v>
+      </c>
+      <c r="I649" t="n">
+        <v>-0.00293489270542646</v>
+      </c>
+      <c r="J649" t="n">
+        <v>192.0497082027794</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>705.0999755859375</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1446.349975585938</v>
+      </c>
+      <c r="E650" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1194.699951171875</v>
+      </c>
+      <c r="G650" t="n">
+        <v>760.9500122070312</v>
+      </c>
+      <c r="H650" t="n">
+        <v>17843.19958496094</v>
+      </c>
+      <c r="I650" t="n">
+        <v>-0.0005321597429113499</v>
+      </c>
+      <c r="J650" t="n">
+        <v>191.947507079436</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>689.2000122070312</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1429.550048828125</v>
+      </c>
+      <c r="E651" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1175.349975585938</v>
+      </c>
+      <c r="G651" t="n">
+        <v>742.5499877929688</v>
+      </c>
+      <c r="H651" t="n">
+        <v>17509.20007324219</v>
+      </c>
+      <c r="I651" t="n">
+        <v>-0.0187185885652627</v>
+      </c>
+      <c r="J651" t="n">
+        <v>188.3545206682882</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>693.5999755859375</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1422.300048828125</v>
+      </c>
+      <c r="E652" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G652" t="n">
+        <v>742.25</v>
+      </c>
+      <c r="H652" t="n">
+        <v>17466.64990234375</v>
+      </c>
+      <c r="I652" t="n">
+        <v>-0.002430160756656341</v>
+      </c>
+      <c r="J652" t="n">
+        <v>187.8967889038213</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>692.4500122070312</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1388.650024414062</v>
+      </c>
+      <c r="E653" t="n">
+        <v>608.5499877929688</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1165.550048828125</v>
+      </c>
+      <c r="G653" t="n">
+        <v>751.6500244140625</v>
+      </c>
+      <c r="H653" t="n">
+        <v>17342.00036621094</v>
+      </c>
+      <c r="I653" t="n">
+        <v>-0.007136430673868747</v>
+      </c>
+      <c r="J653" t="n">
+        <v>186.5558764959666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J653"/>
+  <dimension ref="A1:J673"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="G588" sqref="G588"/>
@@ -20746,6 +20746,626 @@
         <v>186.5558764959666</v>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>650.9500122070312</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1470.050048828125</v>
+      </c>
+      <c r="E654" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1316.800048828125</v>
+      </c>
+      <c r="G654" t="n">
+        <v>811.2000122070312</v>
+      </c>
+      <c r="H654" t="n">
+        <v>17987.74047851562</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0</v>
+      </c>
+      <c r="J654" t="n">
+        <v>186.5558764959666</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>640.0499877929688</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1460.75</v>
+      </c>
+      <c r="E655" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1341.949951171875</v>
+      </c>
+      <c r="G655" t="n">
+        <v>822.3499755859375</v>
+      </c>
+      <c r="H655" t="n">
+        <v>17977.66967773438</v>
+      </c>
+      <c r="I655" t="n">
+        <v>-0.0005598702512568748</v>
+      </c>
+      <c r="J655" t="n">
+        <v>186.4514294105194</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1475.300048828125</v>
+      </c>
+      <c r="E656" t="n">
+        <v>609</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1327.75</v>
+      </c>
+      <c r="G656" t="n">
+        <v>824.2999877929688</v>
+      </c>
+      <c r="H656" t="n">
+        <v>18052.54992675781</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0.004165181047695957</v>
+      </c>
+      <c r="J656" t="n">
+        <v>187.2280333706159</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>643.9000244140625</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1457.699951171875</v>
+      </c>
+      <c r="E657" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1254.800048828125</v>
+      </c>
+      <c r="G657" t="n">
+        <v>835.4000244140625</v>
+      </c>
+      <c r="H657" t="n">
+        <v>17792.94024658203</v>
+      </c>
+      <c r="I657" t="n">
+        <v>-0.01438077619112318</v>
+      </c>
+      <c r="J657" t="n">
+        <v>184.5355489260089</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1443.449951171875</v>
+      </c>
+      <c r="E658" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1256.849975585938</v>
+      </c>
+      <c r="G658" t="n">
+        <v>832.7000122070312</v>
+      </c>
+      <c r="H658" t="n">
+        <v>17880.34979248047</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0.004912597057432855</v>
+      </c>
+      <c r="J658" t="n">
+        <v>185.4420977206545</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>676</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1492.050048828125</v>
+      </c>
+      <c r="E659" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1225.25</v>
+      </c>
+      <c r="G659" t="n">
+        <v>827.5999755859375</v>
+      </c>
+      <c r="H659" t="n">
+        <v>18025.32012939453</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0.008107802061849448</v>
+      </c>
+      <c r="J659" t="n">
+        <v>186.9456255429077</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>680</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1503.050048828125</v>
+      </c>
+      <c r="E660" t="n">
+        <v>608</v>
+      </c>
+      <c r="F660" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G660" t="n">
+        <v>824.75</v>
+      </c>
+      <c r="H660" t="n">
+        <v>18130.15014648438</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.005815709032478913</v>
+      </c>
+      <c r="J660" t="n">
+        <v>188.03284690596</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>680.4500122070312</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1499.949951171875</v>
+      </c>
+      <c r="E661" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1229</v>
+      </c>
+      <c r="G661" t="n">
+        <v>814</v>
+      </c>
+      <c r="H661" t="n">
+        <v>18088.97985839844</v>
+      </c>
+      <c r="I661" t="n">
+        <v>-0.002270818926114677</v>
+      </c>
+      <c r="J661" t="n">
+        <v>187.6058583584748</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>686.0999755859375</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1513.449951171875</v>
+      </c>
+      <c r="E662" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="F662" t="n">
+        <v>1224.849975585938</v>
+      </c>
+      <c r="G662" t="n">
+        <v>809.7000122070312</v>
+      </c>
+      <c r="H662" t="n">
+        <v>18193.19958496094</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0.00576150382046627</v>
+      </c>
+      <c r="J662" t="n">
+        <v>188.686750228149</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1491.300048828125</v>
+      </c>
+      <c r="E663" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1229.300048828125</v>
+      </c>
+      <c r="G663" t="n">
+        <v>788.0499877929688</v>
+      </c>
+      <c r="H663" t="n">
+        <v>18027.60040283203</v>
+      </c>
+      <c r="I663" t="n">
+        <v>-0.009102257211853799</v>
+      </c>
+      <c r="J663" t="n">
+        <v>186.9692748951036</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>695.2000122070312</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1456.349975585938</v>
+      </c>
+      <c r="E664" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1219.699951171875</v>
+      </c>
+      <c r="G664" t="n">
+        <v>751.9500122070312</v>
+      </c>
+      <c r="H664" t="n">
+        <v>17765.49987792969</v>
+      </c>
+      <c r="I664" t="n">
+        <v>-0.01453884704817227</v>
+      </c>
+      <c r="J664" t="n">
+        <v>184.250957204696</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>692</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1459.400024414062</v>
+      </c>
+      <c r="E665" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1222.949951171875</v>
+      </c>
+      <c r="G665" t="n">
+        <v>746.75</v>
+      </c>
+      <c r="H665" t="n">
+        <v>17827</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0.003461772676980224</v>
+      </c>
+      <c r="J665" t="n">
+        <v>184.8887921340547</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>695.2999877929688</v>
+      </c>
+      <c r="D666" t="n">
+        <v>1432.150024414062</v>
+      </c>
+      <c r="E666" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="F666" t="n">
+        <v>1224.550048828125</v>
+      </c>
+      <c r="G666" t="n">
+        <v>744.5999755859375</v>
+      </c>
+      <c r="H666" t="n">
+        <v>17755.70007324219</v>
+      </c>
+      <c r="I666" t="n">
+        <v>-0.003999547133999692</v>
+      </c>
+      <c r="J666" t="n">
+        <v>184.1493206953662</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>697</v>
+      </c>
+      <c r="D667" t="n">
+        <v>1444.849975585938</v>
+      </c>
+      <c r="E667" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1197.849975585938</v>
+      </c>
+      <c r="G667" t="n">
+        <v>747.2000122070312</v>
+      </c>
+      <c r="H667" t="n">
+        <v>17752.34997558594</v>
+      </c>
+      <c r="I667" t="n">
+        <v>-0.0001886773060161447</v>
+      </c>
+      <c r="J667" t="n">
+        <v>184.1145758976327</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>709</v>
+      </c>
+      <c r="D668" t="n">
+        <v>1456.599975585938</v>
+      </c>
+      <c r="E668" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="F668" t="n">
+        <v>1206.300048828125</v>
+      </c>
+      <c r="G668" t="n">
+        <v>747.5499877929688</v>
+      </c>
+      <c r="H668" t="n">
+        <v>17905.25006103516</v>
+      </c>
+      <c r="I668" t="n">
+        <v>0.008612949027001824</v>
+      </c>
+      <c r="J668" t="n">
+        <v>185.7003453549671</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>702.5</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1449.300048828125</v>
+      </c>
+      <c r="E669" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="F669" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G669" t="n">
+        <v>763.75</v>
+      </c>
+      <c r="H669" t="n">
+        <v>17852.70007324219</v>
+      </c>
+      <c r="I669" t="n">
+        <v>-0.00293489270542646</v>
+      </c>
+      <c r="J669" t="n">
+        <v>185.1553347659896</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>705.0999755859375</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1446.349975585938</v>
+      </c>
+      <c r="E670" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="F670" t="n">
+        <v>1194.699951171875</v>
+      </c>
+      <c r="G670" t="n">
+        <v>760.9500122070312</v>
+      </c>
+      <c r="H670" t="n">
+        <v>17843.19958496094</v>
+      </c>
+      <c r="I670" t="n">
+        <v>-0.0005321597429113499</v>
+      </c>
+      <c r="J670" t="n">
+        <v>185.0568025506419</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>689.2000122070312</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1429.550048828125</v>
+      </c>
+      <c r="E671" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1175.349975585938</v>
+      </c>
+      <c r="G671" t="n">
+        <v>742.5499877929688</v>
+      </c>
+      <c r="H671" t="n">
+        <v>17509.20007324219</v>
+      </c>
+      <c r="I671" t="n">
+        <v>-0.0187185885652627</v>
+      </c>
+      <c r="J671" t="n">
+        <v>181.5928004024934</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>693.5999755859375</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1422.300048828125</v>
+      </c>
+      <c r="E672" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="F672" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G672" t="n">
+        <v>742.25</v>
+      </c>
+      <c r="H672" t="n">
+        <v>17466.64990234375</v>
+      </c>
+      <c r="I672" t="n">
+        <v>-0.002430160756656341</v>
+      </c>
+      <c r="J672" t="n">
+        <v>181.1515007052639</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>692.4500122070312</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1388.650024414062</v>
+      </c>
+      <c r="E673" t="n">
+        <v>608.5499877929688</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1165.550048828125</v>
+      </c>
+      <c r="G673" t="n">
+        <v>751.6500244140625</v>
+      </c>
+      <c r="H673" t="n">
+        <v>17342.00036621094</v>
+      </c>
+      <c r="I673" t="n">
+        <v>-0.007136430673868747</v>
+      </c>
+      <c r="J673" t="n">
+        <v>179.8587255790135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J673"/>
+  <dimension ref="A1:J693"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="G588" sqref="G588"/>
@@ -21366,6 +21366,626 @@
         <v>179.8587255790135</v>
       </c>
     </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>650.9500122070312</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1470.050048828125</v>
+      </c>
+      <c r="E674" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="F674" t="n">
+        <v>1316.800048828125</v>
+      </c>
+      <c r="G674" t="n">
+        <v>811.2000122070312</v>
+      </c>
+      <c r="H674" t="n">
+        <v>17987.74047851562</v>
+      </c>
+      <c r="I674" t="n">
+        <v>0</v>
+      </c>
+      <c r="J674" t="n">
+        <v>179.8587255790135</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>640.0499877929688</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1460.75</v>
+      </c>
+      <c r="E675" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1341.949951171875</v>
+      </c>
+      <c r="G675" t="n">
+        <v>822.3499755859375</v>
+      </c>
+      <c r="H675" t="n">
+        <v>17977.66967773438</v>
+      </c>
+      <c r="I675" t="n">
+        <v>-0.0005598702512568748</v>
+      </c>
+      <c r="J675" t="n">
+        <v>179.7580280291328</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="D676" t="n">
+        <v>1475.300048828125</v>
+      </c>
+      <c r="E676" t="n">
+        <v>609</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1327.75</v>
+      </c>
+      <c r="G676" t="n">
+        <v>824.2999877929688</v>
+      </c>
+      <c r="H676" t="n">
+        <v>18052.54992675781</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0.004165181047695957</v>
+      </c>
+      <c r="J676" t="n">
+        <v>180.506752760651</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>643.9000244140625</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1457.699951171875</v>
+      </c>
+      <c r="E677" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="F677" t="n">
+        <v>1254.800048828125</v>
+      </c>
+      <c r="G677" t="n">
+        <v>835.4000244140625</v>
+      </c>
+      <c r="H677" t="n">
+        <v>17792.94024658203</v>
+      </c>
+      <c r="I677" t="n">
+        <v>-0.01438077619112318</v>
+      </c>
+      <c r="J677" t="n">
+        <v>177.9109255482136</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="D678" t="n">
+        <v>1443.449951171875</v>
+      </c>
+      <c r="E678" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="F678" t="n">
+        <v>1256.849975585938</v>
+      </c>
+      <c r="G678" t="n">
+        <v>832.7000122070312</v>
+      </c>
+      <c r="H678" t="n">
+        <v>17880.34979248047</v>
+      </c>
+      <c r="I678" t="n">
+        <v>0.004912597057432855</v>
+      </c>
+      <c r="J678" t="n">
+        <v>178.7849302375469</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>676</v>
+      </c>
+      <c r="D679" t="n">
+        <v>1492.050048828125</v>
+      </c>
+      <c r="E679" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="F679" t="n">
+        <v>1225.25</v>
+      </c>
+      <c r="G679" t="n">
+        <v>827.5999755859375</v>
+      </c>
+      <c r="H679" t="n">
+        <v>18025.32012939453</v>
+      </c>
+      <c r="I679" t="n">
+        <v>0.008107802061849448</v>
+      </c>
+      <c r="J679" t="n">
+        <v>180.2344830635545</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>680</v>
+      </c>
+      <c r="D680" t="n">
+        <v>1503.050048828125</v>
+      </c>
+      <c r="E680" t="n">
+        <v>608</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G680" t="n">
+        <v>824.75</v>
+      </c>
+      <c r="H680" t="n">
+        <v>18130.15014648438</v>
+      </c>
+      <c r="I680" t="n">
+        <v>0.005815709032478913</v>
+      </c>
+      <c r="J680" t="n">
+        <v>181.2826743746714</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>680.4500122070312</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1499.949951171875</v>
+      </c>
+      <c r="E681" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="F681" t="n">
+        <v>1229</v>
+      </c>
+      <c r="G681" t="n">
+        <v>814</v>
+      </c>
+      <c r="H681" t="n">
+        <v>18088.97985839844</v>
+      </c>
+      <c r="I681" t="n">
+        <v>-0.002270818926114677</v>
+      </c>
+      <c r="J681" t="n">
+        <v>180.8710142467247</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>686.0999755859375</v>
+      </c>
+      <c r="D682" t="n">
+        <v>1513.449951171875</v>
+      </c>
+      <c r="E682" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="F682" t="n">
+        <v>1224.849975585938</v>
+      </c>
+      <c r="G682" t="n">
+        <v>809.7000122070312</v>
+      </c>
+      <c r="H682" t="n">
+        <v>18193.19958496094</v>
+      </c>
+      <c r="I682" t="n">
+        <v>0.00576150382046627</v>
+      </c>
+      <c r="J682" t="n">
+        <v>181.9131032863188</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="D683" t="n">
+        <v>1491.300048828125</v>
+      </c>
+      <c r="E683" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="F683" t="n">
+        <v>1229.300048828125</v>
+      </c>
+      <c r="G683" t="n">
+        <v>788.0499877929688</v>
+      </c>
+      <c r="H683" t="n">
+        <v>18027.60040283203</v>
+      </c>
+      <c r="I683" t="n">
+        <v>-0.009102257211853799</v>
+      </c>
+      <c r="J683" t="n">
+        <v>180.2572834300002</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>695.2000122070312</v>
+      </c>
+      <c r="D684" t="n">
+        <v>1456.349975585938</v>
+      </c>
+      <c r="E684" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="F684" t="n">
+        <v>1219.699951171875</v>
+      </c>
+      <c r="G684" t="n">
+        <v>751.9500122070312</v>
+      </c>
+      <c r="H684" t="n">
+        <v>17765.49987792969</v>
+      </c>
+      <c r="I684" t="n">
+        <v>-0.01453884704817227</v>
+      </c>
+      <c r="J684" t="n">
+        <v>177.6365503568924</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>692</v>
+      </c>
+      <c r="D685" t="n">
+        <v>1459.400024414062</v>
+      </c>
+      <c r="E685" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="F685" t="n">
+        <v>1222.949951171875</v>
+      </c>
+      <c r="G685" t="n">
+        <v>746.75</v>
+      </c>
+      <c r="H685" t="n">
+        <v>17827</v>
+      </c>
+      <c r="I685" t="n">
+        <v>0.003461772676980224</v>
+      </c>
+      <c r="J685" t="n">
+        <v>178.2514877133509</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>695.2999877929688</v>
+      </c>
+      <c r="D686" t="n">
+        <v>1432.150024414062</v>
+      </c>
+      <c r="E686" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1224.550048828125</v>
+      </c>
+      <c r="G686" t="n">
+        <v>744.5999755859375</v>
+      </c>
+      <c r="H686" t="n">
+        <v>17755.70007324219</v>
+      </c>
+      <c r="I686" t="n">
+        <v>-0.003999547133999692</v>
+      </c>
+      <c r="J686" t="n">
+        <v>177.5385624865358</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>697</v>
+      </c>
+      <c r="D687" t="n">
+        <v>1444.849975585938</v>
+      </c>
+      <c r="E687" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1197.849975585938</v>
+      </c>
+      <c r="G687" t="n">
+        <v>747.2000122070312</v>
+      </c>
+      <c r="H687" t="n">
+        <v>17752.34997558594</v>
+      </c>
+      <c r="I687" t="n">
+        <v>-0.0001886773060161447</v>
+      </c>
+      <c r="J687" t="n">
+        <v>177.5050649888519</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>709</v>
+      </c>
+      <c r="D688" t="n">
+        <v>1456.599975585938</v>
+      </c>
+      <c r="E688" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="F688" t="n">
+        <v>1206.300048828125</v>
+      </c>
+      <c r="G688" t="n">
+        <v>747.5499877929688</v>
+      </c>
+      <c r="H688" t="n">
+        <v>17905.25006103516</v>
+      </c>
+      <c r="I688" t="n">
+        <v>0.008612949027001824</v>
+      </c>
+      <c r="J688" t="n">
+        <v>179.0339070656355</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>702.5</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1449.300048828125</v>
+      </c>
+      <c r="E689" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="F689" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G689" t="n">
+        <v>763.75</v>
+      </c>
+      <c r="H689" t="n">
+        <v>17852.70007324219</v>
+      </c>
+      <c r="I689" t="n">
+        <v>-0.00293489270542646</v>
+      </c>
+      <c r="J689" t="n">
+        <v>178.5084617577646</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>705.0999755859375</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1446.349975585938</v>
+      </c>
+      <c r="E690" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="F690" t="n">
+        <v>1194.699951171875</v>
+      </c>
+      <c r="G690" t="n">
+        <v>760.9500122070312</v>
+      </c>
+      <c r="H690" t="n">
+        <v>17843.19958496094</v>
+      </c>
+      <c r="I690" t="n">
+        <v>-0.0005321597429113499</v>
+      </c>
+      <c r="J690" t="n">
+        <v>178.4134667406481</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>689.2000122070312</v>
+      </c>
+      <c r="D691" t="n">
+        <v>1429.550048828125</v>
+      </c>
+      <c r="E691" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="F691" t="n">
+        <v>1175.349975585938</v>
+      </c>
+      <c r="G691" t="n">
+        <v>742.5499877929688</v>
+      </c>
+      <c r="H691" t="n">
+        <v>17509.20007324219</v>
+      </c>
+      <c r="I691" t="n">
+        <v>-0.0187185885652627</v>
+      </c>
+      <c r="J691" t="n">
+        <v>175.0738184622277</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>693.5999755859375</v>
+      </c>
+      <c r="D692" t="n">
+        <v>1422.300048828125</v>
+      </c>
+      <c r="E692" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G692" t="n">
+        <v>742.25</v>
+      </c>
+      <c r="H692" t="n">
+        <v>17466.64990234375</v>
+      </c>
+      <c r="I692" t="n">
+        <v>-0.002430160756656341</v>
+      </c>
+      <c r="J692" t="n">
+        <v>174.6483609390828</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>692.4500122070312</v>
+      </c>
+      <c r="D693" t="n">
+        <v>1388.650024414062</v>
+      </c>
+      <c r="E693" t="n">
+        <v>608.5499877929688</v>
+      </c>
+      <c r="F693" t="n">
+        <v>1165.550048828125</v>
+      </c>
+      <c r="G693" t="n">
+        <v>751.6500244140625</v>
+      </c>
+      <c r="H693" t="n">
+        <v>17342.00036621094</v>
+      </c>
+      <c r="I693" t="n">
+        <v>-0.007136430673868747</v>
+      </c>
+      <c r="J693" t="n">
+        <v>173.4019950189362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J613"/>
+  <dimension ref="A1:J634"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="A593" sqref="A593"/>
@@ -19508,6 +19508,657 @@
         <v>200.7075815441321</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>650.9500122070312</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1470.050048828125</v>
+      </c>
+      <c r="E614" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="F614" t="n">
+        <v>1316.800048828125</v>
+      </c>
+      <c r="G614" t="n">
+        <v>811.2000122070312</v>
+      </c>
+      <c r="H614" t="n">
+        <v>17987.74047851562</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0</v>
+      </c>
+      <c r="J614" t="n">
+        <v>200.7075815441321</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>640.0499877929688</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1460.75</v>
+      </c>
+      <c r="E615" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="F615" t="n">
+        <v>1341.949951171875</v>
+      </c>
+      <c r="G615" t="n">
+        <v>822.3499755859375</v>
+      </c>
+      <c r="H615" t="n">
+        <v>17977.66967773438</v>
+      </c>
+      <c r="I615" t="n">
+        <v>-0.0005598702512568748</v>
+      </c>
+      <c r="J615" t="n">
+        <v>200.5952113400238</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1475.300048828125</v>
+      </c>
+      <c r="E616" t="n">
+        <v>609</v>
+      </c>
+      <c r="F616" t="n">
+        <v>1327.75</v>
+      </c>
+      <c r="G616" t="n">
+        <v>824.2999877929688</v>
+      </c>
+      <c r="H616" t="n">
+        <v>18052.54992675781</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.004165181047695957</v>
+      </c>
+      <c r="J616" t="n">
+        <v>201.4307267125558</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>643.9000244140625</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1457.699951171875</v>
+      </c>
+      <c r="E617" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1254.800048828125</v>
+      </c>
+      <c r="G617" t="n">
+        <v>835.4000244140625</v>
+      </c>
+      <c r="H617" t="n">
+        <v>17792.94024658203</v>
+      </c>
+      <c r="I617" t="n">
+        <v>-0.01438077619112318</v>
+      </c>
+      <c r="J617" t="n">
+        <v>198.5339965136873</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1443.449951171875</v>
+      </c>
+      <c r="E618" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1256.849975585938</v>
+      </c>
+      <c r="G618" t="n">
+        <v>832.7000122070312</v>
+      </c>
+      <c r="H618" t="n">
+        <v>17880.34979248047</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.004912597057432855</v>
+      </c>
+      <c r="J618" t="n">
+        <v>199.5093140407608</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>676</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1492.050048828125</v>
+      </c>
+      <c r="E619" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1225.25</v>
+      </c>
+      <c r="G619" t="n">
+        <v>827.5999755859375</v>
+      </c>
+      <c r="H619" t="n">
+        <v>18025.32012939453</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.008107802061849448</v>
+      </c>
+      <c r="J619" t="n">
+        <v>201.1268960684986</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>680</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1503.050048828125</v>
+      </c>
+      <c r="E620" t="n">
+        <v>608</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G620" t="n">
+        <v>824.75</v>
+      </c>
+      <c r="H620" t="n">
+        <v>18130.15014648438</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.005815709032478913</v>
+      </c>
+      <c r="J620" t="n">
+        <v>202.2965915746387</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>680.4500122070312</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1499.949951171875</v>
+      </c>
+      <c r="E621" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1229</v>
+      </c>
+      <c r="G621" t="n">
+        <v>814</v>
+      </c>
+      <c r="H621" t="n">
+        <v>18088.97985839844</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.002270818926114677</v>
+      </c>
+      <c r="J621" t="n">
+        <v>201.8372126458025</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>686.0999755859375</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1513.449951171875</v>
+      </c>
+      <c r="E622" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1224.849975585938</v>
+      </c>
+      <c r="G622" t="n">
+        <v>809.7000122070312</v>
+      </c>
+      <c r="H622" t="n">
+        <v>18193.19958496094</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.00576150382046627</v>
+      </c>
+      <c r="J622" t="n">
+        <v>203.0000985175735</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1491.300048828125</v>
+      </c>
+      <c r="E623" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1229.300048828125</v>
+      </c>
+      <c r="G623" t="n">
+        <v>788.0499877929688</v>
+      </c>
+      <c r="H623" t="n">
+        <v>18027.60040283203</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.009102257211853799</v>
+      </c>
+      <c r="J623" t="n">
+        <v>201.152339406835</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>695.2000122070312</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1456.349975585938</v>
+      </c>
+      <c r="E624" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1219.699951171875</v>
+      </c>
+      <c r="G624" t="n">
+        <v>751.9500122070312</v>
+      </c>
+      <c r="H624" t="n">
+        <v>17765.49987792969</v>
+      </c>
+      <c r="I624" t="n">
+        <v>-0.01453884704817227</v>
+      </c>
+      <c r="J624" t="n">
+        <v>198.2278163108169</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>692</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1459.400024414062</v>
+      </c>
+      <c r="E625" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1222.949951171875</v>
+      </c>
+      <c r="G625" t="n">
+        <v>746.75</v>
+      </c>
+      <c r="H625" t="n">
+        <v>17827</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.003461772676980224</v>
+      </c>
+      <c r="J625" t="n">
+        <v>198.9140359491392</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>695.2999877929688</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1432.150024414062</v>
+      </c>
+      <c r="E626" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1224.550048828125</v>
+      </c>
+      <c r="G626" t="n">
+        <v>744.5999755859375</v>
+      </c>
+      <c r="H626" t="n">
+        <v>17755.70007324219</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.003999547133999692</v>
+      </c>
+      <c r="J626" t="n">
+        <v>198.1184698867465</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>697</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1444.849975585938</v>
+      </c>
+      <c r="E627" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1197.849975585938</v>
+      </c>
+      <c r="G627" t="n">
+        <v>747.2000122070312</v>
+      </c>
+      <c r="H627" t="n">
+        <v>17752.34997558594</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.0001886773060161447</v>
+      </c>
+      <c r="J627" t="n">
+        <v>198.0810894275762</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>709</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1456.599975585938</v>
+      </c>
+      <c r="E628" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1206.300048828125</v>
+      </c>
+      <c r="G628" t="n">
+        <v>747.5499877929688</v>
+      </c>
+      <c r="H628" t="n">
+        <v>17905.25006103516</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.008612949027001824</v>
+      </c>
+      <c r="J628" t="n">
+        <v>199.7871517540289</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>702.5</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1449.300048828125</v>
+      </c>
+      <c r="E629" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G629" t="n">
+        <v>763.75</v>
+      </c>
+      <c r="H629" t="n">
+        <v>17852.70007324219</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.00293489270542646</v>
+      </c>
+      <c r="J629" t="n">
+        <v>199.2007978997081</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>705.0999755859375</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1446.349975585938</v>
+      </c>
+      <c r="E630" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1194.699951171875</v>
+      </c>
+      <c r="G630" t="n">
+        <v>760.9500122070312</v>
+      </c>
+      <c r="H630" t="n">
+        <v>17843.19958496094</v>
+      </c>
+      <c r="I630" t="n">
+        <v>-0.0005321597429113499</v>
+      </c>
+      <c r="J630" t="n">
+        <v>199.0947912543101</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>689.2000122070312</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1429.550048828125</v>
+      </c>
+      <c r="E631" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1175.349975585938</v>
+      </c>
+      <c r="G631" t="n">
+        <v>742.5499877929688</v>
+      </c>
+      <c r="H631" t="n">
+        <v>17509.20007324219</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.0187185885652627</v>
+      </c>
+      <c r="J631" t="n">
+        <v>195.3680177713338</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>693.5999755859375</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1422.300048828125</v>
+      </c>
+      <c r="E632" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G632" t="n">
+        <v>742.25</v>
+      </c>
+      <c r="H632" t="n">
+        <v>17466.64990234375</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.002430160756656341</v>
+      </c>
+      <c r="J632" t="n">
+        <v>194.8932420814401</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>692.4500122070312</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1388.650024414062</v>
+      </c>
+      <c r="E633" t="n">
+        <v>608.5499877929688</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1165.550048828125</v>
+      </c>
+      <c r="G633" t="n">
+        <v>751.6500244140625</v>
+      </c>
+      <c r="H633" t="n">
+        <v>17342.00036621094</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.007136430673868747</v>
+      </c>
+      <c r="J633" t="n">
+        <v>193.5023999705204</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>695.4000244140625</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1393.400024414062</v>
+      </c>
+      <c r="E634" t="n">
+        <v>606.2999877929688</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1189.400024414062</v>
+      </c>
+      <c r="G634" t="n">
+        <v>766.2000122070312</v>
+      </c>
+      <c r="H634" t="n">
+        <v>17499.90032958984</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.009105060549217708</v>
+      </c>
+      <c r="J634" t="n">
+        <v>195.264251038671</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -76,9 +76,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -88,7 +88,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J616"/>
+  <dimension ref="A1:J618"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -18894,7 +18895,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="9" t="n">
+      <c r="A594" s="10" t="n">
         <v>45533</v>
       </c>
       <c r="C594" t="n">
@@ -18923,7 +18924,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="9" t="n">
+      <c r="A595" s="10" t="n">
         <v>45534</v>
       </c>
       <c r="C595" t="n">
@@ -18952,7 +18953,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="9" t="n">
+      <c r="A596" s="10" t="n">
         <v>45537</v>
       </c>
       <c r="C596" t="n">
@@ -18981,7 +18982,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="9" t="n">
+      <c r="A597" s="10" t="n">
         <v>45538</v>
       </c>
       <c r="C597" t="n">
@@ -19010,7 +19011,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="9" t="n">
+      <c r="A598" s="10" t="n">
         <v>45539</v>
       </c>
       <c r="C598" t="n">
@@ -19039,7 +19040,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="9" t="n">
+      <c r="A599" s="10" t="n">
         <v>45540</v>
       </c>
       <c r="C599" t="n">
@@ -19068,7 +19069,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="9" t="n">
+      <c r="A600" s="10" t="n">
         <v>45541</v>
       </c>
       <c r="C600" t="n">
@@ -19097,7 +19098,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="9" t="n">
+      <c r="A601" s="10" t="n">
         <v>45544</v>
       </c>
       <c r="C601" t="n">
@@ -19126,7 +19127,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="9" t="n">
+      <c r="A602" s="10" t="n">
         <v>45545</v>
       </c>
       <c r="C602" t="n">
@@ -19155,7 +19156,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="9" t="n">
+      <c r="A603" s="10" t="n">
         <v>45546</v>
       </c>
       <c r="C603" t="n">
@@ -19184,7 +19185,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="9" t="n">
+      <c r="A604" s="10" t="n">
         <v>45547</v>
       </c>
       <c r="C604" t="n">
@@ -19213,7 +19214,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="9" t="n">
+      <c r="A605" s="10" t="n">
         <v>45548</v>
       </c>
       <c r="C605" t="n">
@@ -19242,7 +19243,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="9" t="n">
+      <c r="A606" s="10" t="n">
         <v>45551</v>
       </c>
       <c r="C606" t="n">
@@ -19271,7 +19272,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="9" t="n">
+      <c r="A607" s="10" t="n">
         <v>45552</v>
       </c>
       <c r="C607" t="n">
@@ -19300,7 +19301,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="9" t="n">
+      <c r="A608" s="10" t="n">
         <v>45553</v>
       </c>
       <c r="C608" t="n">
@@ -19329,7 +19330,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="9" t="n">
+      <c r="A609" s="10" t="n">
         <v>45554</v>
       </c>
       <c r="C609" t="n">
@@ -19358,7 +19359,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="9" t="n">
+      <c r="A610" s="10" t="n">
         <v>45555</v>
       </c>
       <c r="C610" t="n">
@@ -19387,7 +19388,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="9" t="n">
+      <c r="A611" s="10" t="n">
         <v>45558</v>
       </c>
       <c r="C611" t="n">
@@ -19416,7 +19417,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="9" t="n">
+      <c r="A612" s="10" t="n">
         <v>45559</v>
       </c>
       <c r="C612" t="n">
@@ -19445,7 +19446,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="9" t="n">
+      <c r="A613" s="10" t="n">
         <v>45560</v>
       </c>
       <c r="C613" t="n">
@@ -19474,7 +19475,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="9" t="n">
+      <c r="A614" s="10" t="n">
         <v>45561</v>
       </c>
       <c r="C614" t="n">
@@ -19503,7 +19504,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="9" t="n">
+      <c r="A615" s="10" t="n">
         <v>45562</v>
       </c>
       <c r="C615" t="n">
@@ -19532,7 +19533,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="9" t="n">
+      <c r="A616" s="10" t="n">
         <v>45565</v>
       </c>
       <c r="C616" t="n">
@@ -19558,6 +19559,64 @@
       </c>
       <c r="J616" t="n">
         <v>203.0028082893642</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C617" t="n">
+        <v>693.6500244140625</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1388.25</v>
+      </c>
+      <c r="E617" t="n">
+        <v>612.25</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1176.75</v>
+      </c>
+      <c r="G617" t="n">
+        <v>753.6500244140625</v>
+      </c>
+      <c r="H617" t="n">
+        <v>17401.90026855469</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" t="n">
+        <v>203.0028082893642</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C618" t="n">
+        <v>699.0499877929688</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1348.400024414062</v>
+      </c>
+      <c r="E618" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1141.900024414062</v>
+      </c>
+      <c r="G618" t="n">
+        <v>744.4500122070312</v>
+      </c>
+      <c r="H618" t="n">
+        <v>17105.30010986328</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.0170441247285714</v>
+      </c>
+      <c r="J618" t="n">
+        <v>199.54280310463</v>
       </c>
     </row>
   </sheetData>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J618"/>
+  <dimension ref="A1:J620"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19619,6 +19619,64 @@
         <v>199.54280310463</v>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C619" t="n">
+        <v>693.6500244140625</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1388.25</v>
+      </c>
+      <c r="E619" t="n">
+        <v>612.25</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1176.75</v>
+      </c>
+      <c r="G619" t="n">
+        <v>753.6500244140625</v>
+      </c>
+      <c r="H619" t="n">
+        <v>17401.90026855469</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0</v>
+      </c>
+      <c r="J619" t="n">
+        <v>199.54280310463</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C620" t="n">
+        <v>699.0499877929688</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1348.400024414062</v>
+      </c>
+      <c r="E620" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1141.900024414062</v>
+      </c>
+      <c r="G620" t="n">
+        <v>744.4500122070312</v>
+      </c>
+      <c r="H620" t="n">
+        <v>17105.30010986328</v>
+      </c>
+      <c r="I620" t="n">
+        <v>-0.0170441247285714</v>
+      </c>
+      <c r="J620" t="n">
+        <v>196.1417706798259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J620"/>
+  <dimension ref="A1:J622"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19677,6 +19677,64 @@
         <v>196.1417706798259</v>
       </c>
     </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C621" t="n">
+        <v>693.6500244140625</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1388.25</v>
+      </c>
+      <c r="E621" t="n">
+        <v>612.25</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1176.75</v>
+      </c>
+      <c r="G621" t="n">
+        <v>753.6500244140625</v>
+      </c>
+      <c r="H621" t="n">
+        <v>17401.90026855469</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0</v>
+      </c>
+      <c r="J621" t="n">
+        <v>196.1417706798259</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C622" t="n">
+        <v>699.0499877929688</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1348.400024414062</v>
+      </c>
+      <c r="E622" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1141.900024414062</v>
+      </c>
+      <c r="G622" t="n">
+        <v>744.4500122070312</v>
+      </c>
+      <c r="H622" t="n">
+        <v>17105.30010986328</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.0170441247285714</v>
+      </c>
+      <c r="J622" t="n">
+        <v>192.7987058758761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -78,7 +78,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -90,6 +90,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J622"/>
+  <dimension ref="A1:J624"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19735,6 +19736,64 @@
         <v>192.7987058758761</v>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" s="11" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C623" t="n">
+        <v>693.6500244140625</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1388.25</v>
+      </c>
+      <c r="E623" t="n">
+        <v>612.25</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1176.75</v>
+      </c>
+      <c r="G623" t="n">
+        <v>753.6500244140625</v>
+      </c>
+      <c r="H623" t="n">
+        <v>17401.90026855469</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0</v>
+      </c>
+      <c r="J623" t="n">
+        <v>192.7987058758761</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="11" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C624" t="n">
+        <v>699.0499877929688</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1348.400024414062</v>
+      </c>
+      <c r="E624" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1141.900024414062</v>
+      </c>
+      <c r="G624" t="n">
+        <v>744.4500122070312</v>
+      </c>
+      <c r="H624" t="n">
+        <v>17105.30010986328</v>
+      </c>
+      <c r="I624" t="n">
+        <v>-0.0170441247285714</v>
+      </c>
+      <c r="J624" t="n">
+        <v>189.5126206854205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J624"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19792,6 +19792,35 @@
         <v>195.8048613477272</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="9" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C625" t="n">
+        <v>686</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1315.050048828125</v>
+      </c>
+      <c r="E625" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1154</v>
+      </c>
+      <c r="G625" t="n">
+        <v>729.9000244140625</v>
+      </c>
+      <c r="H625" t="n">
+        <v>16899.50024414062</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0</v>
+      </c>
+      <c r="J625" t="n">
+        <v>195.8048613477272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19821,6 +19821,35 @@
         <v>195.8048613477272</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="9" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C626" t="n">
+        <v>686</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1315.050048828125</v>
+      </c>
+      <c r="E626" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1154</v>
+      </c>
+      <c r="G626" t="n">
+        <v>729.9000244140625</v>
+      </c>
+      <c r="H626" t="n">
+        <v>16899.50024414062</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>195.8048613477272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19850,6 +19850,35 @@
         <v>195.8048613477272</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="9" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C627" t="n">
+        <v>686</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1315.050048828125</v>
+      </c>
+      <c r="E627" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1154</v>
+      </c>
+      <c r="G627" t="n">
+        <v>729.9000244140625</v>
+      </c>
+      <c r="H627" t="n">
+        <v>16899.50024414062</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>195.8048613477272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19879,6 +19879,35 @@
         <v>195.8048613477272</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="9" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C628" t="n">
+        <v>686</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1315.050048828125</v>
+      </c>
+      <c r="E628" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1154</v>
+      </c>
+      <c r="G628" t="n">
+        <v>729.9000244140625</v>
+      </c>
+      <c r="H628" t="n">
+        <v>16899.50024414062</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>195.8048613477272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:J629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19908,6 +19908,35 @@
         <v>195.8048613477272</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="9" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C629" t="n">
+        <v>686</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1315.050048828125</v>
+      </c>
+      <c r="E629" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1154</v>
+      </c>
+      <c r="G629" t="n">
+        <v>729.9000244140625</v>
+      </c>
+      <c r="H629" t="n">
+        <v>16899.50024414062</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="n">
+        <v>195.8048613477272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J624"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19792,6 +19792,35 @@
         <v>195.8048613477272</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="9" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C625" t="n">
+        <v>689.3499755859375</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1312.599975585938</v>
+      </c>
+      <c r="E625" t="n">
+        <v>591.6500244140625</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1121.849975585938</v>
+      </c>
+      <c r="G625" t="n">
+        <v>724.5999755859375</v>
+      </c>
+      <c r="H625" t="n">
+        <v>16802.14965820312</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0</v>
+      </c>
+      <c r="J625" t="n">
+        <v>195.8048613477272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19821,6 +19821,35 @@
         <v>195.8048613477272</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="9" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C626" t="n">
+        <v>689.3499755859375</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1312.599975585938</v>
+      </c>
+      <c r="E626" t="n">
+        <v>591.6500244140625</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1121.849975585938</v>
+      </c>
+      <c r="G626" t="n">
+        <v>724.5999755859375</v>
+      </c>
+      <c r="H626" t="n">
+        <v>16802.14965820312</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>195.8048613477272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19850,6 +19850,35 @@
         <v>195.8048613477272</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="9" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C627" t="n">
+        <v>689.3499755859375</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1312.599975585938</v>
+      </c>
+      <c r="E627" t="n">
+        <v>591.6500244140625</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1121.849975585938</v>
+      </c>
+      <c r="G627" t="n">
+        <v>724.5999755859375</v>
+      </c>
+      <c r="H627" t="n">
+        <v>16802.14965820312</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>195.8048613477272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19879,6 +19879,35 @@
         <v>195.8048613477272</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="9" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C628" t="n">
+        <v>689.3499755859375</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1312.599975585938</v>
+      </c>
+      <c r="E628" t="n">
+        <v>591.6500244140625</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1121.849975585938</v>
+      </c>
+      <c r="G628" t="n">
+        <v>724.5999755859375</v>
+      </c>
+      <c r="H628" t="n">
+        <v>16802.14965820312</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>195.8048613477272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19908,6 +19908,64 @@
         <v>195.8048613477272</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="9" t="n">
+        <v>45580</v>
+      </c>
+      <c r="C629" t="n">
+        <v>685.7000122070312</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1342.449951171875</v>
+      </c>
+      <c r="E629" t="n">
+        <v>611.0499877929688</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1160.5</v>
+      </c>
+      <c r="G629" t="n">
+        <v>738.2000122070312</v>
+      </c>
+      <c r="H629" t="n">
+        <v>17094.69995117188</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="n">
+        <v>195.8048613477272</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="9" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C630" t="n">
+        <v>679.5499877929688</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1361</v>
+      </c>
+      <c r="E630" t="n">
+        <v>608.2999877929688</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1157.300048828125</v>
+      </c>
+      <c r="G630" t="n">
+        <v>737.9000244140625</v>
+      </c>
+      <c r="H630" t="n">
+        <v>17088.25012207031</v>
+      </c>
+      <c r="I630" t="n">
+        <v>-0.0003772999303869239</v>
+      </c>
+      <c r="J630" t="n">
+        <v>195.7309841871713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="J593" sqref="J593"/>
@@ -19966,6 +19966,35 @@
         <v>195.7309841871713</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="9" t="n">
+        <v>45582</v>
+      </c>
+      <c r="C631" t="n">
+        <v>666.0999755859375</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1347.300048828125</v>
+      </c>
+      <c r="E631" t="n">
+        <v>588.4000244140625</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1163.699951171875</v>
+      </c>
+      <c r="G631" t="n">
+        <v>715</v>
+      </c>
+      <c r="H631" t="n">
+        <v>16820.89990234375</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0</v>
+      </c>
+      <c r="J631" t="n">
+        <v>195.7309841871713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
       <selection activeCell="C156" sqref="C156:G156"/>
@@ -19997,6 +19997,35 @@
         <v>194.3119134661835</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="12" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C631" t="n">
+        <v>661.9500122070312</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1313.5</v>
+      </c>
+      <c r="E631" t="n">
+        <v>578.4500122070312</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1175.949951171875</v>
+      </c>
+      <c r="G631" t="n">
+        <v>694.25</v>
+      </c>
+      <c r="H631" t="n">
+        <v>16614.34997558594</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0</v>
+      </c>
+      <c r="J631" t="n">
+        <v>194.3119134661835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/FMCG_stocks.xlsx
+++ b/NAV/FMCG_stocks.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J702"/>
+  <dimension ref="A1:J761"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A636" workbookViewId="0">
       <selection activeCell="H660" sqref="H660"/>
@@ -22116,6 +22116,1717 @@
         <v>168.1525752729568</v>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" s="14" t="n">
+        <v>45686</v>
+      </c>
+      <c r="C703" t="n">
+        <v>541.5499877929688</v>
+      </c>
+      <c r="D703" t="n">
+        <v>671.8499755859375</v>
+      </c>
+      <c r="E703" t="n">
+        <v>572.7000122070312</v>
+      </c>
+      <c r="F703" t="n">
+        <v>1118.150024414062</v>
+      </c>
+      <c r="G703" t="n">
+        <v>433.3500061035156</v>
+      </c>
+      <c r="H703" t="n">
+        <v>16636.09991455078</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.008480746286936913</v>
+      </c>
+      <c r="J703" t="n">
+        <v>169.5786346013418</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="14" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C704" t="n">
+        <v>540.5999755859375</v>
+      </c>
+      <c r="D704" t="n">
+        <v>672.1500244140625</v>
+      </c>
+      <c r="E704" t="n">
+        <v>571.0499877929688</v>
+      </c>
+      <c r="F704" t="n">
+        <v>1118.5</v>
+      </c>
+      <c r="G704" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="H704" t="n">
+        <v>16638.19995117188</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.0001262337105379459</v>
+      </c>
+      <c r="J704" t="n">
+        <v>169.6000411416155</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="14" t="n">
+        <v>45688</v>
+      </c>
+      <c r="C705" t="n">
+        <v>536.75</v>
+      </c>
+      <c r="D705" t="n">
+        <v>670.6500244140625</v>
+      </c>
+      <c r="E705" t="n">
+        <v>589.6500244140625</v>
+      </c>
+      <c r="F705" t="n">
+        <v>1121.25</v>
+      </c>
+      <c r="G705" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="H705" t="n">
+        <v>16783.30029296875</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.00872091585764692</v>
+      </c>
+      <c r="J705" t="n">
+        <v>171.079108829865</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="14" t="n">
+        <v>45689</v>
+      </c>
+      <c r="C706" t="n">
+        <v>561.4000244140625</v>
+      </c>
+      <c r="D706" t="n">
+        <v>694.2000122070312</v>
+      </c>
+      <c r="E706" t="n">
+        <v>625.7999877929688</v>
+      </c>
+      <c r="F706" t="n">
+        <v>1191.699951171875</v>
+      </c>
+      <c r="G706" t="n">
+        <v>462.5499877929688</v>
+      </c>
+      <c r="H706" t="n">
+        <v>17569.90002441406</v>
+      </c>
+      <c r="I706" t="n">
+        <v>0.04686800079331555</v>
+      </c>
+      <c r="J706" t="n">
+        <v>179.0972446382228</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="14" t="n">
+        <v>45691</v>
+      </c>
+      <c r="C707" t="n">
+        <v>582.5</v>
+      </c>
+      <c r="D707" t="n">
+        <v>673.3499755859375</v>
+      </c>
+      <c r="E707" t="n">
+        <v>614.2999877929688</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1155.550048828125</v>
+      </c>
+      <c r="G707" t="n">
+        <v>454.3500061035156</v>
+      </c>
+      <c r="H707" t="n">
+        <v>17423.09991455078</v>
+      </c>
+      <c r="I707" t="n">
+        <v>-0.008355204620361913</v>
+      </c>
+      <c r="J707" t="n">
+        <v>177.6008505123274</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="14" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C708" t="n">
+        <v>586.5499877929688</v>
+      </c>
+      <c r="D708" t="n">
+        <v>677.0499877929688</v>
+      </c>
+      <c r="E708" t="n">
+        <v>584.75</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1135.25</v>
+      </c>
+      <c r="G708" t="n">
+        <v>455.1499938964844</v>
+      </c>
+      <c r="H708" t="n">
+        <v>17264.59979248047</v>
+      </c>
+      <c r="I708" t="n">
+        <v>-0.009097125244511868</v>
+      </c>
+      <c r="J708" t="n">
+        <v>175.985193331685</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="14" t="n">
+        <v>45693</v>
+      </c>
+      <c r="C709" t="n">
+        <v>583.6500244140625</v>
+      </c>
+      <c r="D709" t="n">
+        <v>668.75</v>
+      </c>
+      <c r="E709" t="n">
+        <v>585.5999755859375</v>
+      </c>
+      <c r="F709" t="n">
+        <v>1118.75</v>
+      </c>
+      <c r="G709" t="n">
+        <v>448.1499938964844</v>
+      </c>
+      <c r="H709" t="n">
+        <v>17121.70001220703</v>
+      </c>
+      <c r="I709" t="n">
+        <v>-0.008277039838228799</v>
+      </c>
+      <c r="J709" t="n">
+        <v>174.5285568755402</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="14" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C710" t="n">
+        <v>568.5999755859375</v>
+      </c>
+      <c r="D710" t="n">
+        <v>661.5499877929688</v>
+      </c>
+      <c r="E710" t="n">
+        <v>575.7999877929688</v>
+      </c>
+      <c r="F710" t="n">
+        <v>1119.599975585938</v>
+      </c>
+      <c r="G710" t="n">
+        <v>441.1000061035156</v>
+      </c>
+      <c r="H710" t="n">
+        <v>16858.69964599609</v>
+      </c>
+      <c r="I710" t="n">
+        <v>-0.0153606456148297</v>
+      </c>
+      <c r="J710" t="n">
+        <v>171.8476855637074</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="14" t="n">
+        <v>45695</v>
+      </c>
+      <c r="C711" t="n">
+        <v>553.7000122070312</v>
+      </c>
+      <c r="D711" t="n">
+        <v>649.25</v>
+      </c>
+      <c r="E711" t="n">
+        <v>572.8499755859375</v>
+      </c>
+      <c r="F711" t="n">
+        <v>1106.75</v>
+      </c>
+      <c r="G711" t="n">
+        <v>430.8500061035156</v>
+      </c>
+      <c r="H711" t="n">
+        <v>16560.79998779297</v>
+      </c>
+      <c r="I711" t="n">
+        <v>-0.0176703817292264</v>
+      </c>
+      <c r="J711" t="n">
+        <v>168.8110713605126</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="14" t="n">
+        <v>45698</v>
+      </c>
+      <c r="C712" t="n">
+        <v>548.4500122070312</v>
+      </c>
+      <c r="D712" t="n">
+        <v>644.0999755859375</v>
+      </c>
+      <c r="E712" t="n">
+        <v>574.4500122070312</v>
+      </c>
+      <c r="F712" t="n">
+        <v>1091.25</v>
+      </c>
+      <c r="G712" t="n">
+        <v>427.2000122070312</v>
+      </c>
+      <c r="H712" t="n">
+        <v>16444.60009765625</v>
+      </c>
+      <c r="I712" t="n">
+        <v>-0.007016562619098724</v>
+      </c>
+      <c r="J712" t="n">
+        <v>167.6265979075144</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="14" t="n">
+        <v>45699</v>
+      </c>
+      <c r="C713" t="n">
+        <v>520.3499755859375</v>
+      </c>
+      <c r="D713" t="n">
+        <v>634.7000122070312</v>
+      </c>
+      <c r="E713" t="n">
+        <v>540.5</v>
+      </c>
+      <c r="F713" t="n">
+        <v>1071.25</v>
+      </c>
+      <c r="G713" t="n">
+        <v>418.2999877929688</v>
+      </c>
+      <c r="H713" t="n">
+        <v>15866.2998046875</v>
+      </c>
+      <c r="I713" t="n">
+        <v>-0.03516657684191248</v>
+      </c>
+      <c r="J713" t="n">
+        <v>161.7317442714514</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="14" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C714" t="n">
+        <v>534.5</v>
+      </c>
+      <c r="D714" t="n">
+        <v>632.1500244140625</v>
+      </c>
+      <c r="E714" t="n">
+        <v>558.7000122070312</v>
+      </c>
+      <c r="F714" t="n">
+        <v>1072.75</v>
+      </c>
+      <c r="G714" t="n">
+        <v>409.8999938964844</v>
+      </c>
+      <c r="H714" t="n">
+        <v>16026.00018310547</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0.01006538262757315</v>
+      </c>
+      <c r="J714" t="n">
+        <v>163.3596361605684</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="14" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C715" t="n">
+        <v>513.4000244140625</v>
+      </c>
+      <c r="D715" t="n">
+        <v>634.5</v>
+      </c>
+      <c r="E715" t="n">
+        <v>539.6500244140625</v>
+      </c>
+      <c r="F715" t="n">
+        <v>1052.800048828125</v>
+      </c>
+      <c r="G715" t="n">
+        <v>409.7000122070312</v>
+      </c>
+      <c r="H715" t="n">
+        <v>15715.90051269531</v>
+      </c>
+      <c r="I715" t="n">
+        <v>-0.01934978577730592</v>
+      </c>
+      <c r="J715" t="n">
+        <v>160.1986621962028</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="14" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C716" t="n">
+        <v>488.5499877929688</v>
+      </c>
+      <c r="D716" t="n">
+        <v>633.75</v>
+      </c>
+      <c r="E716" t="n">
+        <v>524.5</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1058.900024414062</v>
+      </c>
+      <c r="G716" t="n">
+        <v>410.25</v>
+      </c>
+      <c r="H716" t="n">
+        <v>15437.19995117188</v>
+      </c>
+      <c r="I716" t="n">
+        <v>-0.0177336679688385</v>
+      </c>
+      <c r="J716" t="n">
+        <v>157.3577523117632</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="14" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C717" t="n">
+        <v>474.5499877929688</v>
+      </c>
+      <c r="D717" t="n">
+        <v>624.75</v>
+      </c>
+      <c r="E717" t="n">
+        <v>523.6500244140625</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1039.25</v>
+      </c>
+      <c r="G717" t="n">
+        <v>408.6000061035156</v>
+      </c>
+      <c r="H717" t="n">
+        <v>15216.90008544922</v>
+      </c>
+      <c r="I717" t="n">
+        <v>-0.01427071401675618</v>
+      </c>
+      <c r="J717" t="n">
+        <v>155.1121448302025</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="14" t="n">
+        <v>45706</v>
+      </c>
+      <c r="C718" t="n">
+        <v>469.1000061035156</v>
+      </c>
+      <c r="D718" t="n">
+        <v>626.1500244140625</v>
+      </c>
+      <c r="E718" t="n">
+        <v>541</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1015.549987792969</v>
+      </c>
+      <c r="G718" t="n">
+        <v>405.25</v>
+      </c>
+      <c r="H718" t="n">
+        <v>15218.30017089844</v>
+      </c>
+      <c r="I718" t="n">
+        <v>9.200858528062143e-05</v>
+      </c>
+      <c r="J718" t="n">
+        <v>155.1264164792082</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="14" t="n">
+        <v>45707</v>
+      </c>
+      <c r="C719" t="n">
+        <v>475.8999938964844</v>
+      </c>
+      <c r="D719" t="n">
+        <v>634.9500122070312</v>
+      </c>
+      <c r="E719" t="n">
+        <v>548.3499755859375</v>
+      </c>
+      <c r="F719" t="n">
+        <v>1024.5</v>
+      </c>
+      <c r="G719" t="n">
+        <v>406.3999938964844</v>
+      </c>
+      <c r="H719" t="n">
+        <v>15394.39984130859</v>
+      </c>
+      <c r="I719" t="n">
+        <v>0.01157157293735782</v>
+      </c>
+      <c r="J719" t="n">
+        <v>156.9214731220083</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="14" t="n">
+        <v>45708</v>
+      </c>
+      <c r="C720" t="n">
+        <v>468.3999938964844</v>
+      </c>
+      <c r="D720" t="n">
+        <v>641.5999755859375</v>
+      </c>
+      <c r="E720" t="n">
+        <v>557.0999755859375</v>
+      </c>
+      <c r="F720" t="n">
+        <v>1074.599975585938</v>
+      </c>
+      <c r="G720" t="n">
+        <v>402.0499877929688</v>
+      </c>
+      <c r="H720" t="n">
+        <v>15500.89953613281</v>
+      </c>
+      <c r="I720" t="n">
+        <v>0.006918080335840218</v>
+      </c>
+      <c r="J720" t="n">
+        <v>158.0070684794847</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="14" t="n">
+        <v>45709</v>
+      </c>
+      <c r="C721" t="n">
+        <v>477.6499938964844</v>
+      </c>
+      <c r="D721" t="n">
+        <v>624.7999877929688</v>
+      </c>
+      <c r="E721" t="n">
+        <v>556.6500244140625</v>
+      </c>
+      <c r="F721" t="n">
+        <v>1052.199951171875</v>
+      </c>
+      <c r="G721" t="n">
+        <v>400.8999938964844</v>
+      </c>
+      <c r="H721" t="n">
+        <v>15419.69989013672</v>
+      </c>
+      <c r="I721" t="n">
+        <v>-0.005238382831061916</v>
+      </c>
+      <c r="J721" t="n">
+        <v>157.1793669647753</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="14" t="n">
+        <v>45712</v>
+      </c>
+      <c r="C722" t="n">
+        <v>499.9500122070312</v>
+      </c>
+      <c r="D722" t="n">
+        <v>621.25</v>
+      </c>
+      <c r="E722" t="n">
+        <v>551.4000244140625</v>
+      </c>
+      <c r="F722" t="n">
+        <v>1044.599975585938</v>
+      </c>
+      <c r="G722" t="n">
+        <v>401.8999938964844</v>
+      </c>
+      <c r="H722" t="n">
+        <v>15536.10015869141</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0.00754880246593797</v>
+      </c>
+      <c r="J722" t="n">
+        <v>158.3658829577136</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="14" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C723" t="n">
+        <v>476.5</v>
+      </c>
+      <c r="D723" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="E723" t="n">
+        <v>547.7000122070312</v>
+      </c>
+      <c r="F723" t="n">
+        <v>1057.099975585938</v>
+      </c>
+      <c r="G723" t="n">
+        <v>404.8500061035156</v>
+      </c>
+      <c r="H723" t="n">
+        <v>15372.29998779297</v>
+      </c>
+      <c r="I723" t="n">
+        <v>-0.01054319740638401</v>
+      </c>
+      <c r="J723" t="n">
+        <v>156.6962001912541</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="14" t="n">
+        <v>45715</v>
+      </c>
+      <c r="C724" t="n">
+        <v>448.2999877929688</v>
+      </c>
+      <c r="D724" t="n">
+        <v>623.2999877929688</v>
+      </c>
+      <c r="E724" t="n">
+        <v>545.7999877929688</v>
+      </c>
+      <c r="F724" t="n">
+        <v>1051.400024414062</v>
+      </c>
+      <c r="G724" t="n">
+        <v>401.6000061035156</v>
+      </c>
+      <c r="H724" t="n">
+        <v>15113.39984130859</v>
+      </c>
+      <c r="I724" t="n">
+        <v>-0.01684199154908281</v>
+      </c>
+      <c r="J724" t="n">
+        <v>154.0571241118596</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="14" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C725" t="n">
+        <v>436.0499877929688</v>
+      </c>
+      <c r="D725" t="n">
+        <v>600.5999755859375</v>
+      </c>
+      <c r="E725" t="n">
+        <v>529.9500122070312</v>
+      </c>
+      <c r="F725" t="n">
+        <v>1005.150024414062</v>
+      </c>
+      <c r="G725" t="n">
+        <v>395</v>
+      </c>
+      <c r="H725" t="n">
+        <v>14651.99987792969</v>
+      </c>
+      <c r="I725" t="n">
+        <v>-0.03052919715111275</v>
+      </c>
+      <c r="J725" t="n">
+        <v>149.3538837973152</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="14" t="n">
+        <v>45719</v>
+      </c>
+      <c r="C726" t="n">
+        <v>456.9500122070312</v>
+      </c>
+      <c r="D726" t="n">
+        <v>594.1500244140625</v>
+      </c>
+      <c r="E726" t="n">
+        <v>521.8499755859375</v>
+      </c>
+      <c r="F726" t="n">
+        <v>998.3499755859375</v>
+      </c>
+      <c r="G726" t="n">
+        <v>397.4500122070312</v>
+      </c>
+      <c r="H726" t="n">
+        <v>14733.00012207031</v>
+      </c>
+      <c r="I726" t="n">
+        <v>0.005528272236927582</v>
+      </c>
+      <c r="J726" t="n">
+        <v>150.1795527265892</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="14" t="n">
+        <v>45720</v>
+      </c>
+      <c r="C727" t="n">
+        <v>477.2999877929688</v>
+      </c>
+      <c r="D727" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="E727" t="n">
+        <v>528.6500244140625</v>
+      </c>
+      <c r="F727" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="G727" t="n">
+        <v>394.8500061035156</v>
+      </c>
+      <c r="H727" t="n">
+        <v>14866.40008544922</v>
+      </c>
+      <c r="I727" t="n">
+        <v>0.009054500934882271</v>
+      </c>
+      <c r="J727" t="n">
+        <v>151.5393536271523</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="14" t="n">
+        <v>45721</v>
+      </c>
+      <c r="C728" t="n">
+        <v>476</v>
+      </c>
+      <c r="D728" t="n">
+        <v>589.1500244140625</v>
+      </c>
+      <c r="E728" t="n">
+        <v>525.5499877929688</v>
+      </c>
+      <c r="F728" t="n">
+        <v>991.3499755859375</v>
+      </c>
+      <c r="G728" t="n">
+        <v>405.0499877929688</v>
+      </c>
+      <c r="H728" t="n">
+        <v>14909.19995117188</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0.002878966358812545</v>
+      </c>
+      <c r="J728" t="n">
+        <v>151.9756303282811</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="14" t="n">
+        <v>45722</v>
+      </c>
+      <c r="C729" t="n">
+        <v>491.3500061035156</v>
+      </c>
+      <c r="D729" t="n">
+        <v>607.7000122070312</v>
+      </c>
+      <c r="E729" t="n">
+        <v>533.4500122070312</v>
+      </c>
+      <c r="F729" t="n">
+        <v>1030.300048828125</v>
+      </c>
+      <c r="G729" t="n">
+        <v>405.7000122070312</v>
+      </c>
+      <c r="H729" t="n">
+        <v>15272.50036621094</v>
+      </c>
+      <c r="I729" t="n">
+        <v>0.0243675325456016</v>
+      </c>
+      <c r="J729" t="n">
+        <v>155.6789014464438</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="14" t="n">
+        <v>45723</v>
+      </c>
+      <c r="C730" t="n">
+        <v>487.75</v>
+      </c>
+      <c r="D730" t="n">
+        <v>609.6500244140625</v>
+      </c>
+      <c r="E730" t="n">
+        <v>551.75</v>
+      </c>
+      <c r="F730" t="n">
+        <v>1045.300048828125</v>
+      </c>
+      <c r="G730" t="n">
+        <v>403.8999938964844</v>
+      </c>
+      <c r="H730" t="n">
+        <v>15384.40020751953</v>
+      </c>
+      <c r="I730" t="n">
+        <v>0.007326884179106801</v>
+      </c>
+      <c r="J730" t="n">
+        <v>156.8195427264725</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="14" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C731" t="n">
+        <v>481.8999938964844</v>
+      </c>
+      <c r="D731" t="n">
+        <v>607.2999877929688</v>
+      </c>
+      <c r="E731" t="n">
+        <v>568.1500244140625</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1044</v>
+      </c>
+      <c r="G731" t="n">
+        <v>405</v>
+      </c>
+      <c r="H731" t="n">
+        <v>15425.90002441406</v>
+      </c>
+      <c r="I731" t="n">
+        <v>0.002697525827119807</v>
+      </c>
+      <c r="J731" t="n">
+        <v>157.2425674931742</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="14" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C732" t="n">
+        <v>485.2000122070312</v>
+      </c>
+      <c r="D732" t="n">
+        <v>602.9000244140625</v>
+      </c>
+      <c r="E732" t="n">
+        <v>549.7999877929688</v>
+      </c>
+      <c r="F732" t="n">
+        <v>1039.150024414062</v>
+      </c>
+      <c r="G732" t="n">
+        <v>406.2000122070312</v>
+      </c>
+      <c r="H732" t="n">
+        <v>15313.30029296875</v>
+      </c>
+      <c r="I732" t="n">
+        <v>-0.007299394606934093</v>
+      </c>
+      <c r="J732" t="n">
+        <v>156.0947919440341</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="14" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C733" t="n">
+        <v>478.3500061035156</v>
+      </c>
+      <c r="D733" t="n">
+        <v>600.3499755859375</v>
+      </c>
+      <c r="E733" t="n">
+        <v>567.75</v>
+      </c>
+      <c r="F733" t="n">
+        <v>1043.400024414062</v>
+      </c>
+      <c r="G733" t="n">
+        <v>412.3999938964844</v>
+      </c>
+      <c r="H733" t="n">
+        <v>15396.59991455078</v>
+      </c>
+      <c r="I733" t="n">
+        <v>0.00543969098681354</v>
+      </c>
+      <c r="J733" t="n">
+        <v>156.9438993768606</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="14" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C734" t="n">
+        <v>488.1499938964844</v>
+      </c>
+      <c r="D734" t="n">
+        <v>606.2999877929688</v>
+      </c>
+      <c r="E734" t="n">
+        <v>562.1500244140625</v>
+      </c>
+      <c r="F734" t="n">
+        <v>1025.800048828125</v>
+      </c>
+      <c r="G734" t="n">
+        <v>412.0499877929688</v>
+      </c>
+      <c r="H734" t="n">
+        <v>15439.80004882812</v>
+      </c>
+      <c r="I734" t="n">
+        <v>0.00280582300748861</v>
+      </c>
+      <c r="J734" t="n">
+        <v>157.3842561806172</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="14" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C735" t="n">
+        <v>507.25</v>
+      </c>
+      <c r="D735" t="n">
+        <v>607.5499877929688</v>
+      </c>
+      <c r="E735" t="n">
+        <v>546.6500244140625</v>
+      </c>
+      <c r="F735" t="n">
+        <v>1052.300048828125</v>
+      </c>
+      <c r="G735" t="n">
+        <v>407.9500122070312</v>
+      </c>
+      <c r="H735" t="n">
+        <v>15535.50024414062</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0.006198279447262894</v>
+      </c>
+      <c r="J735" t="n">
+        <v>158.3597677810242</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="14" t="n">
+        <v>45734</v>
+      </c>
+      <c r="C736" t="n">
+        <v>507.25</v>
+      </c>
+      <c r="D736" t="n">
+        <v>607.5499877929688</v>
+      </c>
+      <c r="E736" t="n">
+        <v>546.6500244140625</v>
+      </c>
+      <c r="F736" t="n">
+        <v>1052.300048828125</v>
+      </c>
+      <c r="G736" t="n">
+        <v>407.9500122070312</v>
+      </c>
+      <c r="H736" t="n">
+        <v>15535.50024414062</v>
+      </c>
+      <c r="I736" t="n">
+        <v>0</v>
+      </c>
+      <c r="J736" t="n">
+        <v>158.3597677810242</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="14" t="n">
+        <v>45735</v>
+      </c>
+      <c r="C737" t="n">
+        <v>540.9000244140625</v>
+      </c>
+      <c r="D737" t="n">
+        <v>619.0999755859375</v>
+      </c>
+      <c r="E737" t="n">
+        <v>557.75</v>
+      </c>
+      <c r="F737" t="n">
+        <v>1074.300048828125</v>
+      </c>
+      <c r="G737" t="n">
+        <v>403.0499877929688</v>
+      </c>
+      <c r="H737" t="n">
+        <v>15955.20007324219</v>
+      </c>
+      <c r="I737" t="n">
+        <v>0.02701553361694012</v>
+      </c>
+      <c r="J737" t="n">
+        <v>162.6379414110833</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="14" t="n">
+        <v>45736</v>
+      </c>
+      <c r="C738" t="n">
+        <v>548.75</v>
+      </c>
+      <c r="D738" t="n">
+        <v>632.3499755859375</v>
+      </c>
+      <c r="E738" t="n">
+        <v>567.2000122070312</v>
+      </c>
+      <c r="F738" t="n">
+        <v>1101.5</v>
+      </c>
+      <c r="G738" t="n">
+        <v>403.9500122070312</v>
+      </c>
+      <c r="H738" t="n">
+        <v>16214</v>
+      </c>
+      <c r="I738" t="n">
+        <v>0.01622041250312086</v>
+      </c>
+      <c r="J738" t="n">
+        <v>165.2759959094295</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="14" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C739" t="n">
+        <v>537.9500122070312</v>
+      </c>
+      <c r="D739" t="n">
+        <v>630.7999877929688</v>
+      </c>
+      <c r="E739" t="n">
+        <v>576</v>
+      </c>
+      <c r="F739" t="n">
+        <v>1111.949951171875</v>
+      </c>
+      <c r="G739" t="n">
+        <v>405.5499877929688</v>
+      </c>
+      <c r="H739" t="n">
+        <v>16201.59985351562</v>
+      </c>
+      <c r="I739" t="n">
+        <v>-0.0007647802198331689</v>
+      </c>
+      <c r="J739" t="n">
+        <v>165.1495960969448</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="14" t="n">
+        <v>45740</v>
+      </c>
+      <c r="C740" t="n">
+        <v>531.0999755859375</v>
+      </c>
+      <c r="D740" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="E740" t="n">
+        <v>572.9000244140625</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1106.300048828125</v>
+      </c>
+      <c r="G740" t="n">
+        <v>410.8999938964844</v>
+      </c>
+      <c r="H740" t="n">
+        <v>16161.60015869141</v>
+      </c>
+      <c r="I740" t="n">
+        <v>-0.002468873147458898</v>
+      </c>
+      <c r="J740" t="n">
+        <v>164.7418626938274</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="14" t="n">
+        <v>45741</v>
+      </c>
+      <c r="C741" t="n">
+        <v>517.1500244140625</v>
+      </c>
+      <c r="D741" t="n">
+        <v>624.7999877929688</v>
+      </c>
+      <c r="E741" t="n">
+        <v>576.0499877929688</v>
+      </c>
+      <c r="F741" t="n">
+        <v>1129.849975585938</v>
+      </c>
+      <c r="G741" t="n">
+        <v>409.7999877929688</v>
+      </c>
+      <c r="H741" t="n">
+        <v>16060.79992675781</v>
+      </c>
+      <c r="I741" t="n">
+        <v>-0.006237020526670143</v>
+      </c>
+      <c r="J741" t="n">
+        <v>163.7143643146041</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="14" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C742" t="n">
+        <v>527.9000244140625</v>
+      </c>
+      <c r="D742" t="n">
+        <v>639.75</v>
+      </c>
+      <c r="E742" t="n">
+        <v>557</v>
+      </c>
+      <c r="F742" t="n">
+        <v>1130.300048828125</v>
+      </c>
+      <c r="G742" t="n">
+        <v>407.3500061035156</v>
+      </c>
+      <c r="H742" t="n">
+        <v>16108.40032958984</v>
+      </c>
+      <c r="I742" t="n">
+        <v>0.002963762891580975</v>
+      </c>
+      <c r="J742" t="n">
+        <v>164.1995748723785</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="14" t="n">
+        <v>45743</v>
+      </c>
+      <c r="C743" t="n">
+        <v>536.2999877929688</v>
+      </c>
+      <c r="D743" t="n">
+        <v>649.0499877929688</v>
+      </c>
+      <c r="E743" t="n">
+        <v>577.2999877929688</v>
+      </c>
+      <c r="F743" t="n">
+        <v>1144.550048828125</v>
+      </c>
+      <c r="G743" t="n">
+        <v>409.4500122070312</v>
+      </c>
+      <c r="H743" t="n">
+        <v>16394.29992675781</v>
+      </c>
+      <c r="I743" t="n">
+        <v>0.01774847851544849</v>
+      </c>
+      <c r="J743" t="n">
+        <v>167.1138674992467</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="14" t="n">
+        <v>45744</v>
+      </c>
+      <c r="C744" t="n">
+        <v>539.6500244140625</v>
+      </c>
+      <c r="D744" t="n">
+        <v>651.6500244140625</v>
+      </c>
+      <c r="E744" t="n">
+        <v>579.9000244140625</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1159.25</v>
+      </c>
+      <c r="G744" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="H744" t="n">
+        <v>16483.50048828125</v>
+      </c>
+      <c r="I744" t="n">
+        <v>0.005440949715568494</v>
+      </c>
+      <c r="J744" t="n">
+        <v>168.0231256490842</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="14" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C745" t="n">
+        <v>538.75</v>
+      </c>
+      <c r="D745" t="n">
+        <v>647.5499877929688</v>
+      </c>
+      <c r="E745" t="n">
+        <v>571.7000122070312</v>
+      </c>
+      <c r="F745" t="n">
+        <v>1143.599975585938</v>
+      </c>
+      <c r="G745" t="n">
+        <v>406.6499938964844</v>
+      </c>
+      <c r="H745" t="n">
+        <v>16352.59991455078</v>
+      </c>
+      <c r="I745" t="n">
+        <v>-0.007941309179050346</v>
+      </c>
+      <c r="J745" t="n">
+        <v>166.6888020590744</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="14" t="n">
+        <v>45749</v>
+      </c>
+      <c r="C746" t="n">
+        <v>546.9000244140625</v>
+      </c>
+      <c r="D746" t="n">
+        <v>656.4500122070312</v>
+      </c>
+      <c r="E746" t="n">
+        <v>587</v>
+      </c>
+      <c r="F746" t="n">
+        <v>1162.650024414062</v>
+      </c>
+      <c r="G746" t="n">
+        <v>409.0499877929688</v>
+      </c>
+      <c r="H746" t="n">
+        <v>16615.50024414062</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0.01607697436270738</v>
+      </c>
+      <c r="J746" t="n">
+        <v>169.3686536563286</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="14" t="n">
+        <v>45750</v>
+      </c>
+      <c r="C747" t="n">
+        <v>544.5</v>
+      </c>
+      <c r="D747" t="n">
+        <v>660.9500122070312</v>
+      </c>
+      <c r="E747" t="n">
+        <v>575.7999877929688</v>
+      </c>
+      <c r="F747" t="n">
+        <v>1162.050048828125</v>
+      </c>
+      <c r="G747" t="n">
+        <v>409.3999938964844</v>
+      </c>
+      <c r="H747" t="n">
+        <v>16557.00006103516</v>
+      </c>
+      <c r="I747" t="n">
+        <v>-0.003520819851698329</v>
+      </c>
+      <c r="J747" t="n">
+        <v>168.77233713828</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="14" t="n">
+        <v>45751</v>
+      </c>
+      <c r="C748" t="n">
+        <v>535.4500122070312</v>
+      </c>
+      <c r="D748" t="n">
+        <v>677.2999877929688</v>
+      </c>
+      <c r="E748" t="n">
+        <v>592.7999877929688</v>
+      </c>
+      <c r="F748" t="n">
+        <v>1156.599975585938</v>
+      </c>
+      <c r="G748" t="n">
+        <v>409.7000122070312</v>
+      </c>
+      <c r="H748" t="n">
+        <v>16675.59997558594</v>
+      </c>
+      <c r="I748" t="n">
+        <v>0.007163128230571879</v>
+      </c>
+      <c r="J748" t="n">
+        <v>169.9812750309748</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="14" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C749" t="n">
+        <v>519.5999755859375</v>
+      </c>
+      <c r="D749" t="n">
+        <v>662.6500244140625</v>
+      </c>
+      <c r="E749" t="n">
+        <v>584.5499877929688</v>
+      </c>
+      <c r="F749" t="n">
+        <v>1160.099975585938</v>
+      </c>
+      <c r="G749" t="n">
+        <v>406.0499877929688</v>
+      </c>
+      <c r="H749" t="n">
+        <v>16396.49975585938</v>
+      </c>
+      <c r="I749" t="n">
+        <v>-0.01673704215351662</v>
+      </c>
+      <c r="J749" t="n">
+        <v>167.1362912654729</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="14" t="n">
+        <v>45755</v>
+      </c>
+      <c r="C750" t="n">
+        <v>540.4000244140625</v>
+      </c>
+      <c r="D750" t="n">
+        <v>678.0999755859375</v>
+      </c>
+      <c r="E750" t="n">
+        <v>582.1500244140625</v>
+      </c>
+      <c r="F750" t="n">
+        <v>1197.25</v>
+      </c>
+      <c r="G750" t="n">
+        <v>412.5499877929688</v>
+      </c>
+      <c r="H750" t="n">
+        <v>16754.50012207031</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.02183395063223809</v>
+      </c>
+      <c r="J750" t="n">
+        <v>170.7855367978186</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="14" t="n">
+        <v>45756</v>
+      </c>
+      <c r="C751" t="n">
+        <v>540.2000122070312</v>
+      </c>
+      <c r="D751" t="n">
+        <v>693.4500122070312</v>
+      </c>
+      <c r="E751" t="n">
+        <v>599.8499755859375</v>
+      </c>
+      <c r="F751" t="n">
+        <v>1242.349975585938</v>
+      </c>
+      <c r="G751" t="n">
+        <v>416.2999877929688</v>
+      </c>
+      <c r="H751" t="n">
+        <v>17063.89990234375</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0.01846666734424815</v>
+      </c>
+      <c r="J751" t="n">
+        <v>173.9393764930727</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="14" t="n">
+        <v>45758</v>
+      </c>
+      <c r="C752" t="n">
+        <v>545.75</v>
+      </c>
+      <c r="D752" t="n">
+        <v>709.9500122070312</v>
+      </c>
+      <c r="E752" t="n">
+        <v>608.5</v>
+      </c>
+      <c r="F752" t="n">
+        <v>1223.599975585938</v>
+      </c>
+      <c r="G752" t="n">
+        <v>421.5499877929688</v>
+      </c>
+      <c r="H752" t="n">
+        <v>17253.19995117188</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.0110935981757678</v>
+      </c>
+      <c r="J752" t="n">
+        <v>175.8689900428305</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="14" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C753" t="n">
+        <v>550.5999755859375</v>
+      </c>
+      <c r="D753" t="n">
+        <v>711.8499755859375</v>
+      </c>
+      <c r="E753" t="n">
+        <v>604.7000122070312</v>
+      </c>
+      <c r="F753" t="n">
+        <v>1216.300048828125</v>
+      </c>
+      <c r="G753" t="n">
+        <v>420.3999938964844</v>
+      </c>
+      <c r="H753" t="n">
+        <v>17259.09979248047</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0.000341956351592217</v>
+      </c>
+      <c r="J753" t="n">
+        <v>175.9291295610237</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="14" t="n">
+        <v>45763</v>
+      </c>
+      <c r="C754" t="n">
+        <v>549.2000122070312</v>
+      </c>
+      <c r="D754" t="n">
+        <v>720.4500122070312</v>
+      </c>
+      <c r="E754" t="n">
+        <v>626.75</v>
+      </c>
+      <c r="F754" t="n">
+        <v>1244.599975585938</v>
+      </c>
+      <c r="G754" t="n">
+        <v>424.4500122070312</v>
+      </c>
+      <c r="H754" t="n">
+        <v>17512.7001953125</v>
+      </c>
+      <c r="I754" t="n">
+        <v>0.01469372133432597</v>
+      </c>
+      <c r="J754" t="n">
+        <v>178.5141831653839</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="14" t="n">
+        <v>45764</v>
+      </c>
+      <c r="C755" t="n">
+        <v>556.75</v>
+      </c>
+      <c r="D755" t="n">
+        <v>714.7999877929688</v>
+      </c>
+      <c r="E755" t="n">
+        <v>615</v>
+      </c>
+      <c r="F755" t="n">
+        <v>1239.300048828125</v>
+      </c>
+      <c r="G755" t="n">
+        <v>427.25</v>
+      </c>
+      <c r="H755" t="n">
+        <v>17474.90002441406</v>
+      </c>
+      <c r="I755" t="n">
+        <v>-0.002158443328376923</v>
+      </c>
+      <c r="J755" t="n">
+        <v>178.12887041771</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="14" t="n">
+        <v>45768</v>
+      </c>
+      <c r="C756" t="n">
+        <v>546.7999877929688</v>
+      </c>
+      <c r="D756" t="n">
+        <v>695.1500244140625</v>
+      </c>
+      <c r="E756" t="n">
+        <v>618.0999755859375</v>
+      </c>
+      <c r="F756" t="n">
+        <v>1213.400024414062</v>
+      </c>
+      <c r="G756" t="n">
+        <v>422.8500061035156</v>
+      </c>
+      <c r="H756" t="n">
+        <v>17217.79998779297</v>
+      </c>
+      <c r="I756" t="n">
+        <v>-0.01471253261889345</v>
+      </c>
+      <c r="J756" t="n">
+        <v>175.5081436013228</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="14" t="n">
+        <v>45769</v>
+      </c>
+      <c r="C757" t="n">
+        <v>549.4500122070312</v>
+      </c>
+      <c r="D757" t="n">
+        <v>709.1500244140625</v>
+      </c>
+      <c r="E757" t="n">
+        <v>641.5499877929688</v>
+      </c>
+      <c r="F757" t="n">
+        <v>1231.400024414062</v>
+      </c>
+      <c r="G757" t="n">
+        <v>433.6000061035156</v>
+      </c>
+      <c r="H757" t="n">
+        <v>17564.20025634766</v>
+      </c>
+      <c r="I757" t="n">
+        <v>0.02011872996551694</v>
+      </c>
+      <c r="J757" t="n">
+        <v>179.0391445491869</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="14" t="n">
+        <v>45770</v>
+      </c>
+      <c r="C758" t="n">
+        <v>549.1500244140625</v>
+      </c>
+      <c r="D758" t="n">
+        <v>716.5499877929688</v>
+      </c>
+      <c r="E758" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="F758" t="n">
+        <v>1268.5</v>
+      </c>
+      <c r="G758" t="n">
+        <v>430.8500061035156</v>
+      </c>
+      <c r="H758" t="n">
+        <v>17695.70001220703</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0.007486805771976514</v>
+      </c>
+      <c r="J758" t="n">
+        <v>180.3795758500075</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="14" t="n">
+        <v>45771</v>
+      </c>
+      <c r="C759" t="n">
+        <v>532.3499755859375</v>
+      </c>
+      <c r="D759" t="n">
+        <v>712.75</v>
+      </c>
+      <c r="E759" t="n">
+        <v>645.7999877929688</v>
+      </c>
+      <c r="F759" t="n">
+        <v>1267.900024414062</v>
+      </c>
+      <c r="G759" t="n">
+        <v>430.0499877929688</v>
+      </c>
+      <c r="H759" t="n">
+        <v>17526.19970703125</v>
+      </c>
+      <c r="I759" t="n">
+        <v>-0.009578615429672451</v>
+      </c>
+      <c r="J759" t="n">
+        <v>178.6517892615729</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="14" t="n">
+        <v>45772</v>
+      </c>
+      <c r="C760" t="n">
+        <v>521.9500122070312</v>
+      </c>
+      <c r="D760" t="n">
+        <v>710.4000244140625</v>
+      </c>
+      <c r="E760" t="n">
+        <v>619.7999877929688</v>
+      </c>
+      <c r="F760" t="n">
+        <v>1266.5</v>
+      </c>
+      <c r="G760" t="n">
+        <v>427.7999877929688</v>
+      </c>
+      <c r="H760" t="n">
+        <v>17256.60009765625</v>
+      </c>
+      <c r="I760" t="n">
+        <v>-0.01538266217900282</v>
+      </c>
+      <c r="J760" t="n">
+        <v>175.9036491396877</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="14" t="n">
+        <v>45775</v>
+      </c>
+      <c r="C761" t="n">
+        <v>533.2000122070312</v>
+      </c>
+      <c r="D761" t="n">
+        <v>715.4500122070312</v>
+      </c>
+      <c r="E761" t="n">
+        <v>623.5999755859375</v>
+      </c>
+      <c r="F761" t="n">
+        <v>1265.900024414062</v>
+      </c>
+      <c r="G761" t="n">
+        <v>428.7999877929688</v>
+      </c>
+      <c r="H761" t="n">
+        <v>17404.5</v>
+      </c>
+      <c r="I761" t="n">
+        <v>0.008570628136873695</v>
+      </c>
+      <c r="J761" t="n">
+        <v>177.411253904383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
